--- a/BackTest/2019-10-26 BackTest XVG.xlsx
+++ b/BackTest/2019-10-26 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>216709.4917</v>
       </c>
       <c r="G2" t="n">
-        <v>1148643.7780998</v>
+        <v>4.244000000000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>36590</v>
       </c>
       <c r="G3" t="n">
-        <v>1148643.7780998</v>
+        <v>4.258000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>447332.5811</v>
       </c>
       <c r="G4" t="n">
-        <v>1595976.3591998</v>
+        <v>4.288000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>136148.65058444</v>
       </c>
       <c r="G5" t="n">
-        <v>1732125.00978424</v>
+        <v>4.352000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>4444.444</v>
       </c>
       <c r="G6" t="n">
-        <v>1732125.00978424</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>3053</v>
       </c>
       <c r="G7" t="n">
-        <v>1729072.00978424</v>
+        <v>4.404000000000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>193714</v>
       </c>
       <c r="G8" t="n">
-        <v>1729072.00978424</v>
+        <v>4.418000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>104806.8148</v>
       </c>
       <c r="G9" t="n">
-        <v>1833878.82458424</v>
+        <v>4.448000000000002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>62010</v>
       </c>
       <c r="G10" t="n">
-        <v>1771868.82458424</v>
+        <v>4.434000000000002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>71836.4424</v>
       </c>
       <c r="G11" t="n">
-        <v>1700032.38218424</v>
+        <v>4.384000000000002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>20000</v>
       </c>
       <c r="G12" t="n">
-        <v>1720032.38218424</v>
+        <v>4.376000000000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>30000</v>
       </c>
       <c r="G13" t="n">
-        <v>1750032.38218424</v>
+        <v>4.374000000000002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>35000</v>
       </c>
       <c r="G14" t="n">
-        <v>1750032.38218424</v>
+        <v>4.352000000000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>2349.4279</v>
       </c>
       <c r="G15" t="n">
-        <v>1750032.38218424</v>
+        <v>4.340000000000003</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>2233.0978</v>
       </c>
       <c r="G16" t="n">
-        <v>1747799.28438424</v>
+        <v>4.340000000000003</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>10000</v>
       </c>
       <c r="G17" t="n">
-        <v>1747799.28438424</v>
+        <v>4.322000000000003</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>1607.888</v>
       </c>
       <c r="G18" t="n">
-        <v>1747799.28438424</v>
+        <v>4.298000000000003</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>301051.2805224</v>
       </c>
       <c r="G19" t="n">
-        <v>2048850.56490664</v>
+        <v>4.290000000000003</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,7 +1101,7 @@
         <v>300</v>
       </c>
       <c r="G20" t="n">
-        <v>2049150.56490664</v>
+        <v>4.286000000000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>17007.9999</v>
       </c>
       <c r="G21" t="n">
-        <v>2032142.56500664</v>
+        <v>4.286000000000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>301051.2805</v>
       </c>
       <c r="G22" t="n">
-        <v>1731091.28450664</v>
+        <v>4.258000000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>785.9122</v>
       </c>
       <c r="G23" t="n">
-        <v>1731877.19670664</v>
+        <v>4.272000000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>1343359.5762</v>
       </c>
       <c r="G24" t="n">
-        <v>388517.6205066398</v>
+        <v>4.234000000000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>198473</v>
       </c>
       <c r="G25" t="n">
-        <v>586990.6205066398</v>
+        <v>4.222000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>10025.3063</v>
       </c>
       <c r="G26" t="n">
-        <v>576965.3142066398</v>
+        <v>4.194000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>349.125</v>
       </c>
       <c r="G27" t="n">
-        <v>577314.4392066398</v>
+        <v>4.196000000000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>183890</v>
       </c>
       <c r="G28" t="n">
-        <v>393424.4392066398</v>
+        <v>4.154000000000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,7 +1425,7 @@
         <v>9340</v>
       </c>
       <c r="G29" t="n">
-        <v>384084.4392066398</v>
+        <v>4.146000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>384094.4392066398</v>
+        <v>4.120000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,7 +1497,7 @@
         <v>14651</v>
       </c>
       <c r="G31" t="n">
-        <v>369443.4392066398</v>
+        <v>4.116000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,7 +1533,7 @@
         <v>76173.1738</v>
       </c>
       <c r="G32" t="n">
-        <v>369443.4392066398</v>
+        <v>4.110000000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,7 +1569,7 @@
         <v>169995.5545</v>
       </c>
       <c r="G33" t="n">
-        <v>539438.9937066397</v>
+        <v>4.120000000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,7 +1605,7 @@
         <v>336107.0457</v>
       </c>
       <c r="G34" t="n">
-        <v>539438.9937066397</v>
+        <v>4.132000000000001</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1588,6 +1625,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1609,7 +1647,7 @@
         <v>160452.7135</v>
       </c>
       <c r="G35" t="n">
-        <v>378986.2802066397</v>
+        <v>4.122000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1629,6 +1667,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1650,7 +1689,7 @@
         <v>5000</v>
       </c>
       <c r="G36" t="n">
-        <v>373986.2802066397</v>
+        <v>4.120000000000001</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1670,6 +1709,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1691,7 +1731,7 @@
         <v>14650.9999</v>
       </c>
       <c r="G37" t="n">
-        <v>388637.2801066397</v>
+        <v>4.120000000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1709,6 +1749,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1730,7 +1771,7 @@
         <v>31500</v>
       </c>
       <c r="G38" t="n">
-        <v>357137.2801066397</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1748,6 +1789,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1769,7 +1811,7 @@
         <v>164101.3263</v>
       </c>
       <c r="G39" t="n">
-        <v>521238.6064066397</v>
+        <v>4.086</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1787,6 +1829,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1808,7 +1851,7 @@
         <v>14651</v>
       </c>
       <c r="G40" t="n">
-        <v>521238.6064066397</v>
+        <v>4.082000000000001</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1828,6 +1871,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1849,7 +1893,7 @@
         <v>48899.7555</v>
       </c>
       <c r="G41" t="n">
-        <v>521238.6064066397</v>
+        <v>4.084000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1867,6 +1911,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1888,7 +1933,7 @@
         <v>14650.9999</v>
       </c>
       <c r="G42" t="n">
-        <v>521238.6064066397</v>
+        <v>4.084000000000001</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -1908,6 +1953,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1929,7 +1975,7 @@
         <v>18787.9785</v>
       </c>
       <c r="G43" t="n">
-        <v>521238.6064066397</v>
+        <v>4.090000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -1949,6 +1995,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,7 +2017,7 @@
         <v>280240.3267</v>
       </c>
       <c r="G44" t="n">
-        <v>521238.6064066397</v>
+        <v>4.090000000000001</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -1990,6 +2037,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2011,7 +2059,7 @@
         <v>422000</v>
       </c>
       <c r="G45" t="n">
-        <v>99238.60640663968</v>
+        <v>4.088</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2029,6 +2077,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2050,7 +2099,7 @@
         <v>421010</v>
       </c>
       <c r="G46" t="n">
-        <v>520248.6064066397</v>
+        <v>4.088</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2068,6 +2117,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2089,7 +2139,7 @@
         <v>81000</v>
       </c>
       <c r="G47" t="n">
-        <v>520248.6064066397</v>
+        <v>4.088</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2107,6 +2157,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2128,7 +2179,7 @@
         <v>48927.3838</v>
       </c>
       <c r="G48" t="n">
-        <v>520248.6064066397</v>
+        <v>4.088</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2146,6 +2197,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2167,7 +2219,7 @@
         <v>3568</v>
       </c>
       <c r="G49" t="n">
-        <v>520248.6064066397</v>
+        <v>4.088</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2185,6 +2237,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2206,7 +2259,7 @@
         <v>133825.6652</v>
       </c>
       <c r="G50" t="n">
-        <v>520248.6064066397</v>
+        <v>4.090000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2224,6 +2277,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2245,7 +2299,7 @@
         <v>404.4658</v>
       </c>
       <c r="G51" t="n">
-        <v>519844.1406066397</v>
+        <v>4.084000000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2263,6 +2317,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2284,7 +2339,7 @@
         <v>808</v>
       </c>
       <c r="G52" t="n">
-        <v>520652.1406066397</v>
+        <v>4.084000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2302,6 +2357,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2323,7 +2379,7 @@
         <v>3184</v>
       </c>
       <c r="G53" t="n">
-        <v>523836.1406066397</v>
+        <v>4.094</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2341,6 +2397,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2362,7 +2419,7 @@
         <v>609090.0307</v>
       </c>
       <c r="G54" t="n">
-        <v>1132926.17130664</v>
+        <v>4.106000000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2380,6 +2437,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2401,7 +2459,7 @@
         <v>25978.6513</v>
       </c>
       <c r="G55" t="n">
-        <v>1132926.17130664</v>
+        <v>4.118000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2419,6 +2477,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2440,23 +2499,24 @@
         <v>531.2703</v>
       </c>
       <c r="G56" t="n">
-        <v>1132394.90100664</v>
+        <v>4.130000000000002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>1.100244498777506</v>
       </c>
     </row>
     <row r="57">
@@ -2479,7 +2539,7 @@
         <v>5000</v>
       </c>
       <c r="G57" t="n">
-        <v>1132394.90100664</v>
+        <v>4.136000000000002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2489,14 +2549,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2518,7 +2575,7 @@
         <v>5000</v>
       </c>
       <c r="G58" t="n">
-        <v>1132394.90100664</v>
+        <v>4.132000000000002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2528,14 +2585,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2557,7 +2611,7 @@
         <v>3392</v>
       </c>
       <c r="G59" t="n">
-        <v>1132394.90100664</v>
+        <v>4.126000000000002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2567,14 +2621,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2596,7 +2647,7 @@
         <v>5655.3519</v>
       </c>
       <c r="G60" t="n">
-        <v>1132394.90100664</v>
+        <v>4.120000000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2606,14 +2657,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2635,7 +2683,7 @@
         <v>4963</v>
       </c>
       <c r="G61" t="n">
-        <v>1132394.90100664</v>
+        <v>4.120000000000002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2645,14 +2693,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2674,7 +2719,7 @@
         <v>80338.3933</v>
       </c>
       <c r="G62" t="n">
-        <v>1132394.90100664</v>
+        <v>4.120000000000002</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2684,14 +2729,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2713,7 +2755,7 @@
         <v>2615</v>
       </c>
       <c r="G63" t="n">
-        <v>1135009.90100664</v>
+        <v>4.130000000000002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2723,14 +2765,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2752,24 +2791,21 @@
         <v>190167</v>
       </c>
       <c r="G64" t="n">
-        <v>1135009.90100664</v>
+        <v>4.140000000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2791,7 +2827,7 @@
         <v>23654.9999</v>
       </c>
       <c r="G65" t="n">
-        <v>1135009.90100664</v>
+        <v>4.15</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2801,14 +2837,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2830,7 +2863,7 @@
         <v>61704.7492</v>
       </c>
       <c r="G66" t="n">
-        <v>1135009.90100664</v>
+        <v>4.16</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2840,14 +2873,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2869,7 +2899,7 @@
         <v>28693.1306</v>
       </c>
       <c r="G67" t="n">
-        <v>1135009.90100664</v>
+        <v>4.17</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2879,14 +2909,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2908,7 +2935,7 @@
         <v>121024</v>
       </c>
       <c r="G68" t="n">
-        <v>1135009.90100664</v>
+        <v>4.169999999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2918,14 +2945,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2947,7 +2971,7 @@
         <v>170977.6126</v>
       </c>
       <c r="G69" t="n">
-        <v>1305987.51360664</v>
+        <v>4.171999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2957,14 +2981,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2986,24 +3007,21 @@
         <v>44271.8651</v>
       </c>
       <c r="G70" t="n">
-        <v>1350259.37870664</v>
+        <v>4.177999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3025,7 +3043,7 @@
         <v>462</v>
       </c>
       <c r="G71" t="n">
-        <v>1350259.37870664</v>
+        <v>4.183999999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3035,14 +3053,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3064,24 +3079,21 @@
         <v>11959.5914</v>
       </c>
       <c r="G72" t="n">
-        <v>1338299.78730664</v>
+        <v>4.185999999999998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3103,24 +3115,21 @@
         <v>124978.5929</v>
       </c>
       <c r="G73" t="n">
-        <v>1338299.78730664</v>
+        <v>4.187999999999998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3142,24 +3151,21 @@
         <v>88218.78049999999</v>
       </c>
       <c r="G74" t="n">
-        <v>1338299.78730664</v>
+        <v>4.187999999999998</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3181,7 +3187,7 @@
         <v>18295</v>
       </c>
       <c r="G75" t="n">
-        <v>1338299.78730664</v>
+        <v>4.183999999999998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3191,14 +3197,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3220,24 +3223,21 @@
         <v>3859.5399</v>
       </c>
       <c r="G76" t="n">
-        <v>1334440.24740664</v>
+        <v>4.167999999999998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3259,7 +3259,7 @@
         <v>183000</v>
       </c>
       <c r="G77" t="n">
-        <v>1517440.24740664</v>
+        <v>4.167999999999998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3269,14 +3269,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3298,7 +3295,7 @@
         <v>17324</v>
       </c>
       <c r="G78" t="n">
-        <v>1517440.24740664</v>
+        <v>4.167999999999998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3308,14 +3305,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3337,7 +3331,7 @@
         <v>2644</v>
       </c>
       <c r="G79" t="n">
-        <v>1517440.24740664</v>
+        <v>4.167999999999998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3347,14 +3341,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3376,7 +3367,7 @@
         <v>414</v>
       </c>
       <c r="G80" t="n">
-        <v>1517440.24740664</v>
+        <v>4.167999999999998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3386,14 +3377,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3415,7 +3403,7 @@
         <v>5831</v>
       </c>
       <c r="G81" t="n">
-        <v>1517440.24740664</v>
+        <v>4.179999999999998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3425,14 +3413,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3454,7 +3439,7 @@
         <v>3057</v>
       </c>
       <c r="G82" t="n">
-        <v>1517440.24740664</v>
+        <v>4.179999999999998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3464,14 +3449,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3493,7 +3475,7 @@
         <v>267339.2941</v>
       </c>
       <c r="G83" t="n">
-        <v>1517440.24740664</v>
+        <v>4.179999999999998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3503,14 +3485,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3532,24 +3511,21 @@
         <v>322982</v>
       </c>
       <c r="G84" t="n">
-        <v>1840422.24740664</v>
+        <v>4.183999999999998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3571,24 +3547,21 @@
         <v>2813</v>
       </c>
       <c r="G85" t="n">
-        <v>1840422.24740664</v>
+        <v>4.187999999999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3610,24 +3583,21 @@
         <v>1002</v>
       </c>
       <c r="G86" t="n">
-        <v>1841424.24740664</v>
+        <v>4.195999999999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3649,24 +3619,21 @@
         <v>2511</v>
       </c>
       <c r="G87" t="n">
-        <v>1843935.24740664</v>
+        <v>4.215999999999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3688,7 +3655,7 @@
         <v>2640</v>
       </c>
       <c r="G88" t="n">
-        <v>1843935.24740664</v>
+        <v>4.235999999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3698,12 +3665,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3725,7 +3691,7 @@
         <v>1070</v>
       </c>
       <c r="G89" t="n">
-        <v>1843935.24740664</v>
+        <v>4.251999999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3739,6 +3705,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3760,7 +3727,7 @@
         <v>19949.1203</v>
       </c>
       <c r="G90" t="n">
-        <v>1843935.24740664</v>
+        <v>4.267999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3774,6 +3741,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3795,7 +3763,7 @@
         <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>1843945.24740664</v>
+        <v>4.281999999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3809,6 +3777,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3830,7 +3799,7 @@
         <v>70093.45789999999</v>
       </c>
       <c r="G92" t="n">
-        <v>1773851.78950664</v>
+        <v>4.281999999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3844,6 +3813,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3865,7 +3835,7 @@
         <v>4893.3051</v>
       </c>
       <c r="G93" t="n">
-        <v>1768958.48440664</v>
+        <v>4.26</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3879,6 +3849,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3900,13 +3871,13 @@
         <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>1768968.48440664</v>
+        <v>4.257999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3914,6 +3885,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3935,7 +3907,7 @@
         <v>141.3145</v>
       </c>
       <c r="G95" t="n">
-        <v>1768827.169906639</v>
+        <v>4.254</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3949,6 +3921,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3970,7 +3943,7 @@
         <v>100</v>
       </c>
       <c r="G96" t="n">
-        <v>1768827.169906639</v>
+        <v>4.247999999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3984,6 +3957,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4005,7 +3979,7 @@
         <v>75000</v>
       </c>
       <c r="G97" t="n">
-        <v>1768827.169906639</v>
+        <v>4.243999999999998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4019,6 +3993,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4040,7 +4015,7 @@
         <v>100</v>
       </c>
       <c r="G98" t="n">
-        <v>1768827.169906639</v>
+        <v>4.261999999999998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4054,6 +4029,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4075,7 +4051,7 @@
         <v>5220</v>
       </c>
       <c r="G99" t="n">
-        <v>1774047.169906639</v>
+        <v>4.261999999999998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4089,6 +4065,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4110,7 +4087,7 @@
         <v>2347.0725</v>
       </c>
       <c r="G100" t="n">
-        <v>1774047.169906639</v>
+        <v>4.263999999999998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4124,6 +4101,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4145,7 +4123,7 @@
         <v>249930.3246</v>
       </c>
       <c r="G101" t="n">
-        <v>1524116.84530664</v>
+        <v>4.241999999999997</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4159,6 +4137,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4180,13 +4159,13 @@
         <v>14180</v>
       </c>
       <c r="G102" t="n">
-        <v>1509936.84530664</v>
+        <v>4.215999999999997</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4194,6 +4173,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4215,7 +4195,7 @@
         <v>15609.9999</v>
       </c>
       <c r="G103" t="n">
-        <v>1509936.84530664</v>
+        <v>4.189999999999996</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4229,6 +4209,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4250,7 +4231,7 @@
         <v>7837.0227</v>
       </c>
       <c r="G104" t="n">
-        <v>1502099.822606639</v>
+        <v>4.159999999999997</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4264,6 +4245,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4285,7 +4267,7 @@
         <v>2156</v>
       </c>
       <c r="G105" t="n">
-        <v>1499943.822606639</v>
+        <v>4.127999999999997</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4299,6 +4281,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4320,7 +4303,7 @@
         <v>4</v>
       </c>
       <c r="G106" t="n">
-        <v>1499943.822606639</v>
+        <v>4.119999999999996</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4334,6 +4317,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4355,7 +4339,7 @@
         <v>251718.8554</v>
       </c>
       <c r="G107" t="n">
-        <v>1248224.967206639</v>
+        <v>4.109999999999996</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4369,6 +4353,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4390,13 +4375,13 @@
         <v>174246.7265</v>
       </c>
       <c r="G108" t="n">
-        <v>1422471.69370664</v>
+        <v>4.101999999999996</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4404,6 +4389,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest XVG.xlsx
+++ b/BackTest/2019-10-26 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.31</v>
+        <v>3.99</v>
       </c>
       <c r="C2" t="n">
-        <v>4.31</v>
+        <v>3.99</v>
       </c>
       <c r="D2" t="n">
-        <v>4.31</v>
+        <v>3.99</v>
       </c>
       <c r="E2" t="n">
-        <v>4.31</v>
+        <v>3.99</v>
       </c>
       <c r="F2" t="n">
-        <v>216709.4917</v>
+        <v>284585.8482</v>
       </c>
       <c r="G2" t="n">
-        <v>4.244000000000002</v>
+        <v>69967.97480471007</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.3</v>
+        <v>3.96</v>
       </c>
       <c r="C3" t="n">
-        <v>4.31</v>
+        <v>3.96</v>
       </c>
       <c r="D3" t="n">
-        <v>4.31</v>
+        <v>3.96</v>
       </c>
       <c r="E3" t="n">
-        <v>4.3</v>
+        <v>3.96</v>
       </c>
       <c r="F3" t="n">
-        <v>36590</v>
+        <v>1173745.3618</v>
       </c>
       <c r="G3" t="n">
-        <v>4.258000000000001</v>
+        <v>-1103777.38699529</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.99</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.32</v>
+        <v>3.96</v>
       </c>
       <c r="C4" t="n">
-        <v>4.33</v>
+        <v>4.02</v>
       </c>
       <c r="D4" t="n">
-        <v>4.33</v>
+        <v>4.02</v>
       </c>
       <c r="E4" t="n">
-        <v>4.32</v>
+        <v>3.95</v>
       </c>
       <c r="F4" t="n">
-        <v>447332.5811</v>
+        <v>760584.6075</v>
       </c>
       <c r="G4" t="n">
-        <v>4.288000000000001</v>
+        <v>-343192.7794952899</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.34</v>
+        <v>4.04</v>
       </c>
       <c r="C5" t="n">
-        <v>4.5</v>
+        <v>4.04</v>
       </c>
       <c r="D5" t="n">
-        <v>4.5</v>
+        <v>4.04</v>
       </c>
       <c r="E5" t="n">
-        <v>4.34</v>
+        <v>4.04</v>
       </c>
       <c r="F5" t="n">
-        <v>136148.65058444</v>
+        <v>47632</v>
       </c>
       <c r="G5" t="n">
-        <v>4.352000000000001</v>
+        <v>-295560.7794952899</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.5</v>
+        <v>4.04</v>
       </c>
       <c r="C6" t="n">
-        <v>4.5</v>
+        <v>4.04</v>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>4.04</v>
       </c>
       <c r="E6" t="n">
-        <v>4.5</v>
+        <v>4.04</v>
       </c>
       <c r="F6" t="n">
-        <v>4444.444</v>
+        <v>851</v>
       </c>
       <c r="G6" t="n">
-        <v>4.390000000000001</v>
+        <v>-295560.7794952899</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +646,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.38</v>
+        <v>4.03</v>
       </c>
       <c r="C7" t="n">
-        <v>4.38</v>
+        <v>4.08</v>
       </c>
       <c r="D7" t="n">
-        <v>4.38</v>
+        <v>4.08</v>
       </c>
       <c r="E7" t="n">
-        <v>4.38</v>
+        <v>4.03</v>
       </c>
       <c r="F7" t="n">
-        <v>3053</v>
+        <v>1069546.34079509</v>
       </c>
       <c r="G7" t="n">
-        <v>4.404000000000002</v>
+        <v>773985.5612998001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +690,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.38</v>
+        <v>3.97</v>
       </c>
       <c r="C8" t="n">
-        <v>4.38</v>
+        <v>3.97</v>
       </c>
       <c r="D8" t="n">
-        <v>4.38</v>
+        <v>3.97</v>
       </c>
       <c r="E8" t="n">
-        <v>4.33</v>
+        <v>3.97</v>
       </c>
       <c r="F8" t="n">
-        <v>193714</v>
+        <v>747451.0009</v>
       </c>
       <c r="G8" t="n">
-        <v>4.418000000000001</v>
+        <v>26534.56039980007</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +714,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +732,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.38</v>
+        <v>3.97</v>
       </c>
       <c r="C9" t="n">
-        <v>4.48</v>
+        <v>4.05</v>
       </c>
       <c r="D9" t="n">
-        <v>4.48</v>
+        <v>4.06</v>
       </c>
       <c r="E9" t="n">
-        <v>4.32</v>
+        <v>3.97</v>
       </c>
       <c r="F9" t="n">
-        <v>104806.8148</v>
+        <v>356016.4741</v>
       </c>
       <c r="G9" t="n">
-        <v>4.448000000000002</v>
+        <v>382551.0344998001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +756,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +774,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.32</v>
+        <v>4.04</v>
       </c>
       <c r="C10" t="n">
-        <v>4.43</v>
+        <v>4.04</v>
       </c>
       <c r="D10" t="n">
-        <v>4.43</v>
+        <v>4.04</v>
       </c>
       <c r="E10" t="n">
-        <v>4.25</v>
+        <v>4.04</v>
       </c>
       <c r="F10" t="n">
-        <v>62010</v>
+        <v>319500</v>
       </c>
       <c r="G10" t="n">
-        <v>4.434000000000002</v>
+        <v>63051.03449980007</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +798,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +816,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.25</v>
+        <v>3.97</v>
       </c>
       <c r="C11" t="n">
-        <v>4.25</v>
+        <v>3.97</v>
       </c>
       <c r="D11" t="n">
-        <v>4.25</v>
+        <v>3.97</v>
       </c>
       <c r="E11" t="n">
-        <v>4.25</v>
+        <v>3.97</v>
       </c>
       <c r="F11" t="n">
-        <v>71836.4424</v>
+        <v>45236.7132</v>
       </c>
       <c r="G11" t="n">
-        <v>4.384000000000002</v>
+        <v>17814.32129980007</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +840,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +858,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.34</v>
+        <v>4.04</v>
       </c>
       <c r="C12" t="n">
-        <v>4.34</v>
+        <v>4.04</v>
       </c>
       <c r="D12" t="n">
-        <v>4.34</v>
+        <v>4.04</v>
       </c>
       <c r="E12" t="n">
-        <v>4.34</v>
+        <v>4.04</v>
       </c>
       <c r="F12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G12" t="n">
-        <v>4.376000000000002</v>
+        <v>27814.32129980007</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +882,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +900,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.35</v>
+        <v>4.04</v>
       </c>
       <c r="C13" t="n">
-        <v>4.37</v>
+        <v>4.04</v>
       </c>
       <c r="D13" t="n">
-        <v>4.37</v>
+        <v>4.04</v>
       </c>
       <c r="E13" t="n">
-        <v>4.35</v>
+        <v>4.04</v>
       </c>
       <c r="F13" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="n">
-        <v>4.374000000000002</v>
+        <v>27814.32129980007</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +942,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.37</v>
+        <v>4.05</v>
       </c>
       <c r="C14" t="n">
-        <v>4.37</v>
+        <v>4.05</v>
       </c>
       <c r="D14" t="n">
-        <v>4.37</v>
+        <v>4.05</v>
       </c>
       <c r="E14" t="n">
-        <v>4.37</v>
+        <v>4.05</v>
       </c>
       <c r="F14" t="n">
-        <v>35000</v>
+        <v>14650.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>4.352000000000002</v>
+        <v>42465.32119980007</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +966,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +984,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.37</v>
+        <v>4.05</v>
       </c>
       <c r="C15" t="n">
-        <v>4.37</v>
+        <v>4.05</v>
       </c>
       <c r="D15" t="n">
-        <v>4.37</v>
+        <v>4.05</v>
       </c>
       <c r="E15" t="n">
-        <v>4.37</v>
+        <v>4.05</v>
       </c>
       <c r="F15" t="n">
-        <v>2349.4279</v>
+        <v>40952.972</v>
       </c>
       <c r="G15" t="n">
-        <v>4.340000000000003</v>
+        <v>42465.32119980007</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +1008,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1026,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.25</v>
+        <v>4.07</v>
       </c>
       <c r="C16" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="D16" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="E16" t="n">
-        <v>4.25</v>
+        <v>4.07</v>
       </c>
       <c r="F16" t="n">
-        <v>2233.0978</v>
+        <v>292339.9148</v>
       </c>
       <c r="G16" t="n">
-        <v>4.340000000000003</v>
+        <v>334805.2359998001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1050,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1068,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="D17" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="E17" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>54885</v>
       </c>
       <c r="G17" t="n">
-        <v>4.322000000000003</v>
+        <v>334805.2359998001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1092,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1110,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="C18" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="D18" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="E18" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="F18" t="n">
-        <v>1607.888</v>
+        <v>129510</v>
       </c>
       <c r="G18" t="n">
-        <v>4.298000000000003</v>
+        <v>334805.2359998001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1134,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1152,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.32</v>
+        <v>4.1</v>
       </c>
       <c r="C19" t="n">
-        <v>4.33</v>
+        <v>4.11</v>
       </c>
       <c r="D19" t="n">
-        <v>4.33</v>
+        <v>4.11</v>
       </c>
       <c r="E19" t="n">
-        <v>4.32</v>
+        <v>4.1</v>
       </c>
       <c r="F19" t="n">
-        <v>301051.2805224</v>
+        <v>40000</v>
       </c>
       <c r="G19" t="n">
-        <v>4.290000000000003</v>
+        <v>374805.2359998001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1176,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1194,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.35</v>
+        <v>4.02</v>
       </c>
       <c r="C20" t="n">
-        <v>4.35</v>
+        <v>4.02</v>
       </c>
       <c r="D20" t="n">
-        <v>4.35</v>
+        <v>4.02</v>
       </c>
       <c r="E20" t="n">
-        <v>4.35</v>
+        <v>4.02</v>
       </c>
       <c r="F20" t="n">
-        <v>300</v>
+        <v>88805.6059</v>
       </c>
       <c r="G20" t="n">
-        <v>4.286000000000002</v>
+        <v>285999.6300998001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1218,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1236,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="C21" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="D21" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="E21" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="F21" t="n">
-        <v>17007.9999</v>
+        <v>5000</v>
       </c>
       <c r="G21" t="n">
-        <v>4.286000000000002</v>
+        <v>290999.6300998001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1260,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.25</v>
+        <v>4.11</v>
       </c>
       <c r="C22" t="n">
-        <v>4.11</v>
+        <v>4.13</v>
       </c>
       <c r="D22" t="n">
-        <v>4.25</v>
+        <v>4.13</v>
       </c>
       <c r="E22" t="n">
         <v>4.11</v>
       </c>
       <c r="F22" t="n">
-        <v>301051.2805</v>
+        <v>163827.218</v>
       </c>
       <c r="G22" t="n">
-        <v>4.258000000000002</v>
+        <v>454826.8480998001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1302,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1320,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.32</v>
+        <v>4.13</v>
       </c>
       <c r="C23" t="n">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="D23" t="n">
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="E23" t="n">
-        <v>4.32</v>
+        <v>4.13</v>
       </c>
       <c r="F23" t="n">
-        <v>785.9122</v>
+        <v>276751.2359</v>
       </c>
       <c r="G23" t="n">
-        <v>4.272000000000002</v>
+        <v>731578.0839998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1344,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1362,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.14</v>
+        <v>4.19</v>
       </c>
       <c r="C24" t="n">
-        <v>4.14</v>
+        <v>4.2</v>
       </c>
       <c r="D24" t="n">
-        <v>4.14</v>
+        <v>4.2</v>
       </c>
       <c r="E24" t="n">
-        <v>4.14</v>
+        <v>4.19</v>
       </c>
       <c r="F24" t="n">
-        <v>1343359.5762</v>
+        <v>726.3571428499999</v>
       </c>
       <c r="G24" t="n">
-        <v>4.234000000000002</v>
+        <v>731578.0839998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1386,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1404,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C25" t="n">
-        <v>4.29</v>
+        <v>4.2</v>
       </c>
       <c r="D25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="E25" t="n">
-        <v>4.29</v>
+        <v>4.2</v>
       </c>
       <c r="F25" t="n">
-        <v>198473</v>
+        <v>10000</v>
       </c>
       <c r="G25" t="n">
-        <v>4.222000000000001</v>
+        <v>731578.0839998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1428,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1446,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.11</v>
+        <v>4.2</v>
       </c>
       <c r="C26" t="n">
-        <v>4.11</v>
+        <v>4.2</v>
       </c>
       <c r="D26" t="n">
-        <v>4.11</v>
+        <v>4.2</v>
       </c>
       <c r="E26" t="n">
-        <v>4.11</v>
+        <v>4.2</v>
       </c>
       <c r="F26" t="n">
-        <v>10025.3063</v>
+        <v>33349.2857</v>
       </c>
       <c r="G26" t="n">
-        <v>4.194000000000001</v>
+        <v>731578.0839998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1470,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1488,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.12</v>
+        <v>4.2</v>
       </c>
       <c r="C27" t="n">
-        <v>4.12</v>
+        <v>4.24</v>
       </c>
       <c r="D27" t="n">
-        <v>4.12</v>
+        <v>4.24</v>
       </c>
       <c r="E27" t="n">
-        <v>4.12</v>
+        <v>4.2</v>
       </c>
       <c r="F27" t="n">
-        <v>349.125</v>
+        <v>8780.8099</v>
       </c>
       <c r="G27" t="n">
-        <v>4.196000000000002</v>
+        <v>740358.8938998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1512,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1530,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.11</v>
+        <v>4.18</v>
       </c>
       <c r="C28" t="n">
-        <v>4.11</v>
+        <v>4.18</v>
       </c>
       <c r="D28" t="n">
-        <v>4.11</v>
+        <v>4.18</v>
       </c>
       <c r="E28" t="n">
-        <v>4.11</v>
+        <v>4.18</v>
       </c>
       <c r="F28" t="n">
-        <v>183890</v>
+        <v>726.3570999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>4.154000000000002</v>
+        <v>739632.5367998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1554,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1572,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.1</v>
+        <v>4.18</v>
       </c>
       <c r="C29" t="n">
-        <v>4.1</v>
+        <v>4.18</v>
       </c>
       <c r="D29" t="n">
-        <v>4.1</v>
+        <v>4.18</v>
       </c>
       <c r="E29" t="n">
-        <v>4.1</v>
+        <v>4.18</v>
       </c>
       <c r="F29" t="n">
-        <v>9340</v>
+        <v>2992.5</v>
       </c>
       <c r="G29" t="n">
-        <v>4.146000000000001</v>
+        <v>739632.5367998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1596,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1614,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.16</v>
+        <v>4.24</v>
       </c>
       <c r="C30" t="n">
-        <v>4.16</v>
+        <v>4.31</v>
       </c>
       <c r="D30" t="n">
-        <v>4.16</v>
+        <v>4.31</v>
       </c>
       <c r="E30" t="n">
-        <v>4.16</v>
+        <v>4.24</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>409011.2413</v>
       </c>
       <c r="G30" t="n">
-        <v>4.120000000000001</v>
+        <v>1148643.7780998</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1638,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1656,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.09</v>
+        <v>4.31</v>
       </c>
       <c r="C31" t="n">
-        <v>4.09</v>
+        <v>4.31</v>
       </c>
       <c r="D31" t="n">
-        <v>4.09</v>
+        <v>4.31</v>
       </c>
       <c r="E31" t="n">
-        <v>4.09</v>
+        <v>4.31</v>
       </c>
       <c r="F31" t="n">
-        <v>14651</v>
+        <v>216709.4917</v>
       </c>
       <c r="G31" t="n">
-        <v>4.116000000000001</v>
+        <v>1148643.7780998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1680,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1698,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.09</v>
+        <v>4.3</v>
       </c>
       <c r="C32" t="n">
-        <v>4.09</v>
+        <v>4.31</v>
       </c>
       <c r="D32" t="n">
-        <v>4.09</v>
+        <v>4.31</v>
       </c>
       <c r="E32" t="n">
-        <v>4.09</v>
+        <v>4.3</v>
       </c>
       <c r="F32" t="n">
-        <v>76173.1738</v>
+        <v>36590</v>
       </c>
       <c r="G32" t="n">
-        <v>4.110000000000001</v>
+        <v>1148643.7780998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1722,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1740,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.09</v>
+        <v>4.32</v>
       </c>
       <c r="C33" t="n">
-        <v>4.16</v>
+        <v>4.33</v>
       </c>
       <c r="D33" t="n">
-        <v>4.16</v>
+        <v>4.33</v>
       </c>
       <c r="E33" t="n">
-        <v>4.09</v>
+        <v>4.32</v>
       </c>
       <c r="F33" t="n">
-        <v>169995.5545</v>
+        <v>447332.5811</v>
       </c>
       <c r="G33" t="n">
-        <v>4.120000000000001</v>
+        <v>1595976.3591998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1764,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,36 +1782,36 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.1</v>
+        <v>4.34</v>
       </c>
       <c r="C34" t="n">
-        <v>4.16</v>
+        <v>4.5</v>
       </c>
       <c r="D34" t="n">
-        <v>4.16</v>
+        <v>4.5</v>
       </c>
       <c r="E34" t="n">
-        <v>4.09</v>
+        <v>4.34</v>
       </c>
       <c r="F34" t="n">
-        <v>336107.0457</v>
+        <v>136148.65058444</v>
       </c>
       <c r="G34" t="n">
-        <v>4.132000000000001</v>
+        <v>1732125.00978424</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>3.99</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -1632,33 +1824,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.11</v>
+        <v>4.5</v>
       </c>
       <c r="C35" t="n">
-        <v>4.11</v>
+        <v>4.5</v>
       </c>
       <c r="D35" t="n">
-        <v>4.12</v>
+        <v>4.5</v>
       </c>
       <c r="E35" t="n">
-        <v>4.11</v>
+        <v>4.5</v>
       </c>
       <c r="F35" t="n">
-        <v>160452.7135</v>
+        <v>4444.444</v>
       </c>
       <c r="G35" t="n">
-        <v>4.122000000000001</v>
+        <v>1732125.00978424</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>3.99</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1674,78 +1866,76 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.08</v>
+        <v>4.38</v>
       </c>
       <c r="C36" t="n">
-        <v>4.08</v>
+        <v>4.38</v>
       </c>
       <c r="D36" t="n">
-        <v>4.08</v>
+        <v>4.38</v>
       </c>
       <c r="E36" t="n">
-        <v>4.08</v>
+        <v>4.38</v>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>3053</v>
       </c>
       <c r="G36" t="n">
-        <v>4.120000000000001</v>
+        <v>1729072.00978424</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>3.99</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>1.092744360902256</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.007575757575758</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.08</v>
+        <v>4.38</v>
       </c>
       <c r="C37" t="n">
-        <v>4.09</v>
+        <v>4.38</v>
       </c>
       <c r="D37" t="n">
-        <v>4.09</v>
+        <v>4.38</v>
       </c>
       <c r="E37" t="n">
-        <v>4.08</v>
+        <v>4.33</v>
       </c>
       <c r="F37" t="n">
-        <v>14650.9999</v>
+        <v>193714</v>
       </c>
       <c r="G37" t="n">
-        <v>4.120000000000001</v>
+        <v>1729072.00978424</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1756,36 +1946,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.06</v>
+        <v>4.38</v>
       </c>
       <c r="C38" t="n">
-        <v>4.06</v>
+        <v>4.48</v>
       </c>
       <c r="D38" t="n">
-        <v>4.06</v>
+        <v>4.48</v>
       </c>
       <c r="E38" t="n">
-        <v>4.06</v>
+        <v>4.32</v>
       </c>
       <c r="F38" t="n">
-        <v>31500</v>
+        <v>104806.8148</v>
       </c>
       <c r="G38" t="n">
-        <v>4.100000000000001</v>
+        <v>1833878.82458424</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1796,36 +1982,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.06</v>
+        <v>4.32</v>
       </c>
       <c r="C39" t="n">
-        <v>4.09</v>
+        <v>4.43</v>
       </c>
       <c r="D39" t="n">
-        <v>4.09</v>
+        <v>4.43</v>
       </c>
       <c r="E39" t="n">
-        <v>4.06</v>
+        <v>4.25</v>
       </c>
       <c r="F39" t="n">
-        <v>164101.3263</v>
+        <v>62010</v>
       </c>
       <c r="G39" t="n">
-        <v>4.086</v>
+        <v>1771868.82458424</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1836,38 +2018,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.09</v>
+        <v>4.25</v>
       </c>
       <c r="C40" t="n">
-        <v>4.09</v>
+        <v>4.25</v>
       </c>
       <c r="D40" t="n">
-        <v>4.09</v>
+        <v>4.25</v>
       </c>
       <c r="E40" t="n">
-        <v>4.09</v>
+        <v>4.25</v>
       </c>
       <c r="F40" t="n">
-        <v>14651</v>
+        <v>71836.4424</v>
       </c>
       <c r="G40" t="n">
-        <v>4.082000000000001</v>
+        <v>1700032.38218424</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>4.09</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2054,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.09</v>
+        <v>4.34</v>
       </c>
       <c r="C41" t="n">
-        <v>4.09</v>
+        <v>4.34</v>
       </c>
       <c r="D41" t="n">
-        <v>4.09</v>
+        <v>4.34</v>
       </c>
       <c r="E41" t="n">
-        <v>4.09</v>
+        <v>4.34</v>
       </c>
       <c r="F41" t="n">
-        <v>48899.7555</v>
+        <v>20000</v>
       </c>
       <c r="G41" t="n">
-        <v>4.084000000000001</v>
+        <v>1720032.38218424</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1903,11 +2079,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1918,38 +2090,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.09</v>
+        <v>4.35</v>
       </c>
       <c r="C42" t="n">
-        <v>4.09</v>
+        <v>4.37</v>
       </c>
       <c r="D42" t="n">
-        <v>4.09</v>
+        <v>4.37</v>
       </c>
       <c r="E42" t="n">
-        <v>4.09</v>
+        <v>4.35</v>
       </c>
       <c r="F42" t="n">
-        <v>14650.9999</v>
+        <v>30000</v>
       </c>
       <c r="G42" t="n">
-        <v>4.084000000000001</v>
+        <v>1750032.38218424</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4.09</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1960,38 +2126,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.09</v>
+        <v>4.37</v>
       </c>
       <c r="C43" t="n">
-        <v>4.09</v>
+        <v>4.37</v>
       </c>
       <c r="D43" t="n">
-        <v>4.09</v>
+        <v>4.37</v>
       </c>
       <c r="E43" t="n">
-        <v>4.09</v>
+        <v>4.37</v>
       </c>
       <c r="F43" t="n">
-        <v>18787.9785</v>
+        <v>35000</v>
       </c>
       <c r="G43" t="n">
-        <v>4.090000000000001</v>
+        <v>1750032.38218424</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4.09</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2002,38 +2162,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.09</v>
+        <v>4.37</v>
       </c>
       <c r="C44" t="n">
-        <v>4.09</v>
+        <v>4.37</v>
       </c>
       <c r="D44" t="n">
-        <v>4.09</v>
+        <v>4.37</v>
       </c>
       <c r="E44" t="n">
-        <v>4.09</v>
+        <v>4.37</v>
       </c>
       <c r="F44" t="n">
-        <v>280240.3267</v>
+        <v>2349.4279</v>
       </c>
       <c r="G44" t="n">
-        <v>4.090000000000001</v>
+        <v>1750032.38218424</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4.09</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2044,36 +2198,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.08</v>
+        <v>4.25</v>
       </c>
       <c r="C45" t="n">
-        <v>4.08</v>
+        <v>4.25</v>
       </c>
       <c r="D45" t="n">
-        <v>4.08</v>
+        <v>4.25</v>
       </c>
       <c r="E45" t="n">
-        <v>4.08</v>
+        <v>4.25</v>
       </c>
       <c r="F45" t="n">
-        <v>422000</v>
+        <v>2233.0978</v>
       </c>
       <c r="G45" t="n">
-        <v>4.088</v>
+        <v>1747799.28438424</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2084,36 +2234,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="C46" t="n">
-        <v>4.09</v>
+        <v>4.25</v>
       </c>
       <c r="D46" t="n">
-        <v>4.09</v>
+        <v>4.25</v>
       </c>
       <c r="E46" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="F46" t="n">
-        <v>421010</v>
+        <v>10000</v>
       </c>
       <c r="G46" t="n">
-        <v>4.088</v>
+        <v>1747799.28438424</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2124,22 +2270,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.09</v>
+        <v>4.25</v>
       </c>
       <c r="C47" t="n">
-        <v>4.09</v>
+        <v>4.25</v>
       </c>
       <c r="D47" t="n">
-        <v>4.09</v>
+        <v>4.25</v>
       </c>
       <c r="E47" t="n">
-        <v>4.09</v>
+        <v>4.25</v>
       </c>
       <c r="F47" t="n">
-        <v>81000</v>
+        <v>1607.888</v>
       </c>
       <c r="G47" t="n">
-        <v>4.088</v>
+        <v>1747799.28438424</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2149,11 +2295,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2164,36 +2306,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09</v>
+        <v>4.32</v>
       </c>
       <c r="C48" t="n">
-        <v>4.09</v>
+        <v>4.33</v>
       </c>
       <c r="D48" t="n">
-        <v>4.09</v>
+        <v>4.33</v>
       </c>
       <c r="E48" t="n">
-        <v>4.09</v>
+        <v>4.32</v>
       </c>
       <c r="F48" t="n">
-        <v>48927.3838</v>
+        <v>301051.2805224</v>
       </c>
       <c r="G48" t="n">
-        <v>4.088</v>
+        <v>2048850.56490664</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2204,22 +2342,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.09</v>
+        <v>4.35</v>
       </c>
       <c r="C49" t="n">
-        <v>4.09</v>
+        <v>4.35</v>
       </c>
       <c r="D49" t="n">
-        <v>4.09</v>
+        <v>4.35</v>
       </c>
       <c r="E49" t="n">
-        <v>4.09</v>
+        <v>4.35</v>
       </c>
       <c r="F49" t="n">
-        <v>3568</v>
+        <v>300</v>
       </c>
       <c r="G49" t="n">
-        <v>4.088</v>
+        <v>2049150.56490664</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2229,11 +2367,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2244,36 +2378,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.09</v>
+        <v>4.25</v>
       </c>
       <c r="C50" t="n">
-        <v>4.09</v>
+        <v>4.25</v>
       </c>
       <c r="D50" t="n">
-        <v>4.09</v>
+        <v>4.25</v>
       </c>
       <c r="E50" t="n">
-        <v>4.09</v>
+        <v>4.25</v>
       </c>
       <c r="F50" t="n">
-        <v>133825.6652</v>
+        <v>17007.9999</v>
       </c>
       <c r="G50" t="n">
-        <v>4.090000000000001</v>
+        <v>2032142.56500664</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2284,22 +2414,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.06</v>
+        <v>4.25</v>
       </c>
       <c r="C51" t="n">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="D51" t="n">
-        <v>4.06</v>
+        <v>4.25</v>
       </c>
       <c r="E51" t="n">
-        <v>4.06</v>
+        <v>4.11</v>
       </c>
       <c r="F51" t="n">
-        <v>404.4658</v>
+        <v>301051.2805</v>
       </c>
       <c r="G51" t="n">
-        <v>4.084000000000001</v>
+        <v>1731091.28450664</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2309,11 +2439,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2324,22 +2450,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.09</v>
+        <v>4.32</v>
       </c>
       <c r="C52" t="n">
-        <v>4.09</v>
+        <v>4.32</v>
       </c>
       <c r="D52" t="n">
-        <v>4.09</v>
+        <v>4.32</v>
       </c>
       <c r="E52" t="n">
-        <v>4.09</v>
+        <v>4.32</v>
       </c>
       <c r="F52" t="n">
-        <v>808</v>
+        <v>785.9122</v>
       </c>
       <c r="G52" t="n">
-        <v>4.084000000000001</v>
+        <v>1731877.19670664</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2349,11 +2475,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2364,7 +2486,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.09</v>
+        <v>4.14</v>
       </c>
       <c r="C53" t="n">
         <v>4.14</v>
@@ -2373,13 +2495,13 @@
         <v>4.14</v>
       </c>
       <c r="E53" t="n">
-        <v>4.09</v>
+        <v>4.14</v>
       </c>
       <c r="F53" t="n">
-        <v>3184</v>
+        <v>1343359.5762</v>
       </c>
       <c r="G53" t="n">
-        <v>4.094</v>
+        <v>388517.6205066398</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2389,11 +2511,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2404,22 +2522,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.14</v>
+        <v>4.3</v>
       </c>
       <c r="C54" t="n">
-        <v>4.15</v>
+        <v>4.29</v>
       </c>
       <c r="D54" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="E54" t="n">
-        <v>4.14</v>
+        <v>4.29</v>
       </c>
       <c r="F54" t="n">
-        <v>609090.0307</v>
+        <v>198473</v>
       </c>
       <c r="G54" t="n">
-        <v>4.106000000000001</v>
+        <v>586990.6205066398</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2429,11 +2547,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2444,22 +2558,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.15</v>
+        <v>4.11</v>
       </c>
       <c r="C55" t="n">
-        <v>4.15</v>
+        <v>4.11</v>
       </c>
       <c r="D55" t="n">
-        <v>4.15</v>
+        <v>4.11</v>
       </c>
       <c r="E55" t="n">
-        <v>4.15</v>
+        <v>4.11</v>
       </c>
       <c r="F55" t="n">
-        <v>25978.6513</v>
+        <v>10025.3063</v>
       </c>
       <c r="G55" t="n">
-        <v>4.118000000000001</v>
+        <v>576965.3142066398</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2469,11 +2583,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2496,50 +2606,46 @@
         <v>4.12</v>
       </c>
       <c r="F56" t="n">
-        <v>531.2703</v>
+        <v>349.125</v>
       </c>
       <c r="G56" t="n">
-        <v>4.130000000000002</v>
+        <v>577314.4392066398</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
-        <v>1.100244498777506</v>
-      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.12</v>
+        <v>4.11</v>
       </c>
       <c r="C57" t="n">
-        <v>4.12</v>
+        <v>4.11</v>
       </c>
       <c r="D57" t="n">
-        <v>4.12</v>
+        <v>4.11</v>
       </c>
       <c r="E57" t="n">
-        <v>4.12</v>
+        <v>4.11</v>
       </c>
       <c r="F57" t="n">
-        <v>5000</v>
+        <v>183890</v>
       </c>
       <c r="G57" t="n">
-        <v>4.136000000000002</v>
+        <v>393424.4392066398</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2560,22 +2666,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.12</v>
+        <v>4.1</v>
       </c>
       <c r="C58" t="n">
-        <v>4.12</v>
+        <v>4.1</v>
       </c>
       <c r="D58" t="n">
-        <v>4.12</v>
+        <v>4.1</v>
       </c>
       <c r="E58" t="n">
-        <v>4.12</v>
+        <v>4.1</v>
       </c>
       <c r="F58" t="n">
-        <v>5000</v>
+        <v>9340</v>
       </c>
       <c r="G58" t="n">
-        <v>4.132000000000002</v>
+        <v>384084.4392066398</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2596,22 +2702,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.12</v>
+        <v>4.16</v>
       </c>
       <c r="C59" t="n">
-        <v>4.12</v>
+        <v>4.16</v>
       </c>
       <c r="D59" t="n">
-        <v>4.12</v>
+        <v>4.16</v>
       </c>
       <c r="E59" t="n">
-        <v>4.12</v>
+        <v>4.16</v>
       </c>
       <c r="F59" t="n">
-        <v>3392</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>4.126000000000002</v>
+        <v>384094.4392066398</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2632,22 +2738,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="C60" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="D60" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="E60" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="F60" t="n">
-        <v>5655.3519</v>
+        <v>14651</v>
       </c>
       <c r="G60" t="n">
-        <v>4.120000000000002</v>
+        <v>369443.4392066398</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2668,22 +2774,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="C61" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="D61" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="E61" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="F61" t="n">
-        <v>4963</v>
+        <v>76173.1738</v>
       </c>
       <c r="G61" t="n">
-        <v>4.120000000000002</v>
+        <v>369443.4392066398</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2704,22 +2810,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="C62" t="n">
-        <v>4.12</v>
+        <v>4.16</v>
       </c>
       <c r="D62" t="n">
-        <v>4.12</v>
+        <v>4.16</v>
       </c>
       <c r="E62" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="F62" t="n">
-        <v>80338.3933</v>
+        <v>169995.5545</v>
       </c>
       <c r="G62" t="n">
-        <v>4.120000000000002</v>
+        <v>539438.9937066397</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2740,22 +2846,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.17</v>
+        <v>4.1</v>
       </c>
       <c r="C63" t="n">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
       <c r="D63" t="n">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
       <c r="E63" t="n">
-        <v>4.17</v>
+        <v>4.09</v>
       </c>
       <c r="F63" t="n">
-        <v>2615</v>
+        <v>336107.0457</v>
       </c>
       <c r="G63" t="n">
-        <v>4.130000000000002</v>
+        <v>539438.9937066397</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2776,28 +2882,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.17</v>
+        <v>4.11</v>
       </c>
       <c r="C64" t="n">
-        <v>4.17</v>
+        <v>4.11</v>
       </c>
       <c r="D64" t="n">
-        <v>4.18</v>
+        <v>4.12</v>
       </c>
       <c r="E64" t="n">
-        <v>4.17</v>
+        <v>4.11</v>
       </c>
       <c r="F64" t="n">
-        <v>190167</v>
+        <v>160452.7135</v>
       </c>
       <c r="G64" t="n">
-        <v>4.140000000000001</v>
+        <v>378986.2802066397</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2812,22 +2918,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.17</v>
+        <v>4.08</v>
       </c>
       <c r="C65" t="n">
-        <v>4.17</v>
+        <v>4.08</v>
       </c>
       <c r="D65" t="n">
-        <v>4.17</v>
+        <v>4.08</v>
       </c>
       <c r="E65" t="n">
-        <v>4.17</v>
+        <v>4.08</v>
       </c>
       <c r="F65" t="n">
-        <v>23654.9999</v>
+        <v>5000</v>
       </c>
       <c r="G65" t="n">
-        <v>4.15</v>
+        <v>373986.2802066397</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2848,22 +2954,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.17</v>
+        <v>4.08</v>
       </c>
       <c r="C66" t="n">
-        <v>4.17</v>
+        <v>4.09</v>
       </c>
       <c r="D66" t="n">
-        <v>4.17</v>
+        <v>4.09</v>
       </c>
       <c r="E66" t="n">
-        <v>4.17</v>
+        <v>4.08</v>
       </c>
       <c r="F66" t="n">
-        <v>61704.7492</v>
+        <v>14650.9999</v>
       </c>
       <c r="G66" t="n">
-        <v>4.16</v>
+        <v>388637.2801066397</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2884,22 +2990,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.12</v>
+        <v>4.06</v>
       </c>
       <c r="C67" t="n">
-        <v>4.17</v>
+        <v>4.06</v>
       </c>
       <c r="D67" t="n">
-        <v>4.17</v>
+        <v>4.06</v>
       </c>
       <c r="E67" t="n">
-        <v>4.12</v>
+        <v>4.06</v>
       </c>
       <c r="F67" t="n">
-        <v>28693.1306</v>
+        <v>31500</v>
       </c>
       <c r="G67" t="n">
-        <v>4.17</v>
+        <v>357137.2801066397</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2920,22 +3026,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.17</v>
+        <v>4.06</v>
       </c>
       <c r="C68" t="n">
-        <v>4.17</v>
+        <v>4.09</v>
       </c>
       <c r="D68" t="n">
-        <v>4.17</v>
+        <v>4.09</v>
       </c>
       <c r="E68" t="n">
-        <v>4.17</v>
+        <v>4.06</v>
       </c>
       <c r="F68" t="n">
-        <v>121024</v>
+        <v>164101.3263</v>
       </c>
       <c r="G68" t="n">
-        <v>4.169999999999999</v>
+        <v>521238.6064066397</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2956,22 +3062,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="C69" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="D69" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="E69" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="F69" t="n">
-        <v>170977.6126</v>
+        <v>14651</v>
       </c>
       <c r="G69" t="n">
-        <v>4.171999999999999</v>
+        <v>521238.6064066397</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2992,28 +3098,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="C70" t="n">
-        <v>4.2</v>
+        <v>4.09</v>
       </c>
       <c r="D70" t="n">
-        <v>4.2</v>
+        <v>4.09</v>
       </c>
       <c r="E70" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="F70" t="n">
-        <v>44271.8651</v>
+        <v>48899.7555</v>
       </c>
       <c r="G70" t="n">
-        <v>4.177999999999999</v>
+        <v>521238.6064066397</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3028,22 +3134,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.2</v>
+        <v>4.09</v>
       </c>
       <c r="C71" t="n">
-        <v>4.2</v>
+        <v>4.09</v>
       </c>
       <c r="D71" t="n">
-        <v>4.2</v>
+        <v>4.09</v>
       </c>
       <c r="E71" t="n">
-        <v>4.2</v>
+        <v>4.09</v>
       </c>
       <c r="F71" t="n">
-        <v>462</v>
+        <v>14650.9999</v>
       </c>
       <c r="G71" t="n">
-        <v>4.183999999999999</v>
+        <v>521238.6064066397</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3064,28 +3170,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="C72" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="D72" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="E72" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="F72" t="n">
-        <v>11959.5914</v>
+        <v>18787.9785</v>
       </c>
       <c r="G72" t="n">
-        <v>4.185999999999998</v>
+        <v>521238.6064066397</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3100,28 +3206,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="C73" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="D73" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="E73" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="F73" t="n">
-        <v>124978.5929</v>
+        <v>280240.3267</v>
       </c>
       <c r="G73" t="n">
-        <v>4.187999999999998</v>
+        <v>521238.6064066397</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3136,28 +3242,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.18</v>
+        <v>4.08</v>
       </c>
       <c r="C74" t="n">
-        <v>4.18</v>
+        <v>4.08</v>
       </c>
       <c r="D74" t="n">
-        <v>4.18</v>
+        <v>4.08</v>
       </c>
       <c r="E74" t="n">
-        <v>4.18</v>
+        <v>4.08</v>
       </c>
       <c r="F74" t="n">
-        <v>88218.78049999999</v>
+        <v>422000</v>
       </c>
       <c r="G74" t="n">
-        <v>4.187999999999998</v>
+        <v>99238.60640663968</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3172,22 +3278,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="C75" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="D75" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="E75" t="n">
-        <v>4.18</v>
+        <v>4.05</v>
       </c>
       <c r="F75" t="n">
-        <v>18295</v>
+        <v>421010</v>
       </c>
       <c r="G75" t="n">
-        <v>4.183999999999998</v>
+        <v>520248.6064066397</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3208,28 +3314,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="C76" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="D76" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="E76" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="F76" t="n">
-        <v>3859.5399</v>
+        <v>81000</v>
       </c>
       <c r="G76" t="n">
-        <v>4.167999999999998</v>
+        <v>520248.6064066397</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3244,22 +3350,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="C77" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="D77" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="E77" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="F77" t="n">
-        <v>183000</v>
+        <v>48927.3838</v>
       </c>
       <c r="G77" t="n">
-        <v>4.167999999999998</v>
+        <v>520248.6064066397</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3280,22 +3386,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="C78" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="D78" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="E78" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="F78" t="n">
-        <v>17324</v>
+        <v>3568</v>
       </c>
       <c r="G78" t="n">
-        <v>4.167999999999998</v>
+        <v>520248.6064066397</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3316,22 +3422,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="C79" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="D79" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="E79" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="F79" t="n">
-        <v>2644</v>
+        <v>133825.6652</v>
       </c>
       <c r="G79" t="n">
-        <v>4.167999999999998</v>
+        <v>520248.6064066397</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3352,22 +3458,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.18</v>
+        <v>4.06</v>
       </c>
       <c r="C80" t="n">
-        <v>4.18</v>
+        <v>4.06</v>
       </c>
       <c r="D80" t="n">
-        <v>4.18</v>
+        <v>4.06</v>
       </c>
       <c r="E80" t="n">
-        <v>4.18</v>
+        <v>4.06</v>
       </c>
       <c r="F80" t="n">
-        <v>414</v>
+        <v>404.4658</v>
       </c>
       <c r="G80" t="n">
-        <v>4.167999999999998</v>
+        <v>519844.1406066397</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3388,22 +3494,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="C81" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="D81" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="E81" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="F81" t="n">
-        <v>5831</v>
+        <v>808</v>
       </c>
       <c r="G81" t="n">
-        <v>4.179999999999998</v>
+        <v>520652.1406066397</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3424,22 +3530,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="C82" t="n">
-        <v>4.18</v>
+        <v>4.14</v>
       </c>
       <c r="D82" t="n">
-        <v>4.18</v>
+        <v>4.14</v>
       </c>
       <c r="E82" t="n">
-        <v>4.18</v>
+        <v>4.09</v>
       </c>
       <c r="F82" t="n">
-        <v>3057</v>
+        <v>3184</v>
       </c>
       <c r="G82" t="n">
-        <v>4.179999999999998</v>
+        <v>523836.1406066397</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3460,22 +3566,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.18</v>
+        <v>4.14</v>
       </c>
       <c r="C83" t="n">
-        <v>4.18</v>
+        <v>4.15</v>
       </c>
       <c r="D83" t="n">
-        <v>4.18</v>
+        <v>4.15</v>
       </c>
       <c r="E83" t="n">
-        <v>4.18</v>
+        <v>4.14</v>
       </c>
       <c r="F83" t="n">
-        <v>267339.2941</v>
+        <v>609090.0307</v>
       </c>
       <c r="G83" t="n">
-        <v>4.179999999999998</v>
+        <v>1132926.17130664</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3496,28 +3602,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.19</v>
+        <v>4.15</v>
       </c>
       <c r="C84" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="D84" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="E84" t="n">
-        <v>4.19</v>
+        <v>4.15</v>
       </c>
       <c r="F84" t="n">
-        <v>322982</v>
+        <v>25978.6513</v>
       </c>
       <c r="G84" t="n">
-        <v>4.183999999999998</v>
+        <v>1132926.17130664</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3532,28 +3638,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.2</v>
+        <v>4.12</v>
       </c>
       <c r="C85" t="n">
-        <v>4.2</v>
+        <v>4.12</v>
       </c>
       <c r="D85" t="n">
-        <v>4.2</v>
+        <v>4.12</v>
       </c>
       <c r="E85" t="n">
-        <v>4.2</v>
+        <v>4.12</v>
       </c>
       <c r="F85" t="n">
-        <v>2813</v>
+        <v>531.2703</v>
       </c>
       <c r="G85" t="n">
-        <v>4.187999999999998</v>
+        <v>1132394.90100664</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3568,28 +3674,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.2</v>
+        <v>4.12</v>
       </c>
       <c r="C86" t="n">
-        <v>4.22</v>
+        <v>4.12</v>
       </c>
       <c r="D86" t="n">
-        <v>4.22</v>
+        <v>4.12</v>
       </c>
       <c r="E86" t="n">
-        <v>4.2</v>
+        <v>4.12</v>
       </c>
       <c r="F86" t="n">
-        <v>1002</v>
+        <v>5000</v>
       </c>
       <c r="G86" t="n">
-        <v>4.195999999999998</v>
+        <v>1132394.90100664</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3604,28 +3710,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.22</v>
+        <v>4.12</v>
       </c>
       <c r="C87" t="n">
-        <v>4.28</v>
+        <v>4.12</v>
       </c>
       <c r="D87" t="n">
-        <v>4.28</v>
+        <v>4.12</v>
       </c>
       <c r="E87" t="n">
-        <v>4.22</v>
+        <v>4.12</v>
       </c>
       <c r="F87" t="n">
-        <v>2511</v>
+        <v>5000</v>
       </c>
       <c r="G87" t="n">
-        <v>4.215999999999998</v>
+        <v>1132394.90100664</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3640,28 +3746,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.28</v>
+        <v>4.12</v>
       </c>
       <c r="C88" t="n">
-        <v>4.28</v>
+        <v>4.12</v>
       </c>
       <c r="D88" t="n">
-        <v>4.28</v>
+        <v>4.12</v>
       </c>
       <c r="E88" t="n">
-        <v>4.28</v>
+        <v>4.12</v>
       </c>
       <c r="F88" t="n">
-        <v>2640</v>
+        <v>3392</v>
       </c>
       <c r="G88" t="n">
-        <v>4.235999999999999</v>
+        <v>1132394.90100664</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3676,28 +3782,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.28</v>
+        <v>4.12</v>
       </c>
       <c r="C89" t="n">
-        <v>4.28</v>
+        <v>4.12</v>
       </c>
       <c r="D89" t="n">
-        <v>4.28</v>
+        <v>4.12</v>
       </c>
       <c r="E89" t="n">
-        <v>4.28</v>
+        <v>4.12</v>
       </c>
       <c r="F89" t="n">
-        <v>1070</v>
+        <v>5655.3519</v>
       </c>
       <c r="G89" t="n">
-        <v>4.251999999999999</v>
+        <v>1132394.90100664</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3712,28 +3818,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.28</v>
+        <v>4.12</v>
       </c>
       <c r="C90" t="n">
-        <v>4.28</v>
+        <v>4.12</v>
       </c>
       <c r="D90" t="n">
-        <v>4.28</v>
+        <v>4.12</v>
       </c>
       <c r="E90" t="n">
-        <v>4.28</v>
+        <v>4.12</v>
       </c>
       <c r="F90" t="n">
-        <v>19949.1203</v>
+        <v>4963</v>
       </c>
       <c r="G90" t="n">
-        <v>4.267999999999999</v>
+        <v>1132394.90100664</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3748,28 +3854,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.29</v>
+        <v>4.12</v>
       </c>
       <c r="C91" t="n">
-        <v>4.29</v>
+        <v>4.12</v>
       </c>
       <c r="D91" t="n">
-        <v>4.29</v>
+        <v>4.12</v>
       </c>
       <c r="E91" t="n">
-        <v>4.29</v>
+        <v>4.12</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>80338.3933</v>
       </c>
       <c r="G91" t="n">
-        <v>4.281999999999999</v>
+        <v>1132394.90100664</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3784,28 +3890,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.28</v>
+        <v>4.17</v>
       </c>
       <c r="C92" t="n">
-        <v>4.28</v>
+        <v>4.17</v>
       </c>
       <c r="D92" t="n">
-        <v>4.28</v>
+        <v>4.17</v>
       </c>
       <c r="E92" t="n">
-        <v>4.28</v>
+        <v>4.17</v>
       </c>
       <c r="F92" t="n">
-        <v>70093.45789999999</v>
+        <v>2615</v>
       </c>
       <c r="G92" t="n">
-        <v>4.281999999999999</v>
+        <v>1135009.90100664</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3826,22 +3932,22 @@
         <v>4.17</v>
       </c>
       <c r="D93" t="n">
-        <v>4.17</v>
+        <v>4.18</v>
       </c>
       <c r="E93" t="n">
         <v>4.17</v>
       </c>
       <c r="F93" t="n">
-        <v>4893.3051</v>
+        <v>190167</v>
       </c>
       <c r="G93" t="n">
-        <v>4.26</v>
+        <v>1135009.90100664</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3856,28 +3962,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.27</v>
+        <v>4.17</v>
       </c>
       <c r="C94" t="n">
-        <v>4.27</v>
+        <v>4.17</v>
       </c>
       <c r="D94" t="n">
-        <v>4.27</v>
+        <v>4.17</v>
       </c>
       <c r="E94" t="n">
-        <v>4.27</v>
+        <v>4.17</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>23654.9999</v>
       </c>
       <c r="G94" t="n">
-        <v>4.257999999999999</v>
+        <v>1135009.90100664</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3892,28 +3998,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.26</v>
+        <v>4.17</v>
       </c>
       <c r="C95" t="n">
-        <v>4.26</v>
+        <v>4.17</v>
       </c>
       <c r="D95" t="n">
-        <v>4.26</v>
+        <v>4.17</v>
       </c>
       <c r="E95" t="n">
-        <v>4.26</v>
+        <v>4.17</v>
       </c>
       <c r="F95" t="n">
-        <v>141.3145</v>
+        <v>61704.7492</v>
       </c>
       <c r="G95" t="n">
-        <v>4.254</v>
+        <v>1135009.90100664</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3928,28 +4034,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.26</v>
+        <v>4.12</v>
       </c>
       <c r="C96" t="n">
-        <v>4.26</v>
+        <v>4.17</v>
       </c>
       <c r="D96" t="n">
-        <v>4.26</v>
+        <v>4.17</v>
       </c>
       <c r="E96" t="n">
-        <v>4.26</v>
+        <v>4.12</v>
       </c>
       <c r="F96" t="n">
-        <v>100</v>
+        <v>28693.1306</v>
       </c>
       <c r="G96" t="n">
-        <v>4.247999999999999</v>
+        <v>1135009.90100664</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3964,28 +4070,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.26</v>
+        <v>4.17</v>
       </c>
       <c r="C97" t="n">
-        <v>4.26</v>
+        <v>4.17</v>
       </c>
       <c r="D97" t="n">
-        <v>4.26</v>
+        <v>4.17</v>
       </c>
       <c r="E97" t="n">
-        <v>4.26</v>
+        <v>4.17</v>
       </c>
       <c r="F97" t="n">
-        <v>75000</v>
+        <v>121024</v>
       </c>
       <c r="G97" t="n">
-        <v>4.243999999999998</v>
+        <v>1135009.90100664</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4000,28 +4106,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.26</v>
+        <v>4.18</v>
       </c>
       <c r="C98" t="n">
-        <v>4.26</v>
+        <v>4.18</v>
       </c>
       <c r="D98" t="n">
-        <v>4.26</v>
+        <v>4.18</v>
       </c>
       <c r="E98" t="n">
-        <v>4.26</v>
+        <v>4.18</v>
       </c>
       <c r="F98" t="n">
-        <v>100</v>
+        <v>170977.6126</v>
       </c>
       <c r="G98" t="n">
-        <v>4.261999999999998</v>
+        <v>1305987.51360664</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4036,28 +4142,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.26</v>
+        <v>4.18</v>
       </c>
       <c r="C99" t="n">
-        <v>4.27</v>
+        <v>4.2</v>
       </c>
       <c r="D99" t="n">
-        <v>4.27</v>
+        <v>4.2</v>
       </c>
       <c r="E99" t="n">
-        <v>4.26</v>
+        <v>4.18</v>
       </c>
       <c r="F99" t="n">
-        <v>5220</v>
+        <v>44271.8651</v>
       </c>
       <c r="G99" t="n">
-        <v>4.261999999999998</v>
+        <v>1350259.37870664</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4072,28 +4178,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.27</v>
+        <v>4.2</v>
       </c>
       <c r="C100" t="n">
-        <v>4.27</v>
+        <v>4.2</v>
       </c>
       <c r="D100" t="n">
-        <v>4.27</v>
+        <v>4.2</v>
       </c>
       <c r="E100" t="n">
-        <v>4.27</v>
+        <v>4.2</v>
       </c>
       <c r="F100" t="n">
-        <v>2347.0725</v>
+        <v>462</v>
       </c>
       <c r="G100" t="n">
-        <v>4.263999999999998</v>
+        <v>1350259.37870664</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4108,28 +4214,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.15</v>
+        <v>4.18</v>
       </c>
       <c r="C101" t="n">
-        <v>4.15</v>
+        <v>4.18</v>
       </c>
       <c r="D101" t="n">
-        <v>4.15</v>
+        <v>4.18</v>
       </c>
       <c r="E101" t="n">
-        <v>4.15</v>
+        <v>4.18</v>
       </c>
       <c r="F101" t="n">
-        <v>249930.3246</v>
+        <v>11959.5914</v>
       </c>
       <c r="G101" t="n">
-        <v>4.241999999999997</v>
+        <v>1338299.78730664</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4144,28 +4250,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.13</v>
+        <v>4.18</v>
       </c>
       <c r="C102" t="n">
-        <v>4.13</v>
+        <v>4.18</v>
       </c>
       <c r="D102" t="n">
-        <v>4.13</v>
+        <v>4.18</v>
       </c>
       <c r="E102" t="n">
-        <v>4.13</v>
+        <v>4.18</v>
       </c>
       <c r="F102" t="n">
-        <v>14180</v>
+        <v>124978.5929</v>
       </c>
       <c r="G102" t="n">
-        <v>4.215999999999997</v>
+        <v>1338299.78730664</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4180,22 +4286,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.13</v>
+        <v>4.18</v>
       </c>
       <c r="C103" t="n">
-        <v>4.13</v>
+        <v>4.18</v>
       </c>
       <c r="D103" t="n">
-        <v>4.13</v>
+        <v>4.18</v>
       </c>
       <c r="E103" t="n">
-        <v>4.13</v>
+        <v>4.18</v>
       </c>
       <c r="F103" t="n">
-        <v>15609.9999</v>
+        <v>88218.78049999999</v>
       </c>
       <c r="G103" t="n">
-        <v>4.189999999999996</v>
+        <v>1338299.78730664</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4216,22 +4322,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.12</v>
+        <v>4.18</v>
       </c>
       <c r="C104" t="n">
-        <v>4.12</v>
+        <v>4.18</v>
       </c>
       <c r="D104" t="n">
-        <v>4.12</v>
+        <v>4.18</v>
       </c>
       <c r="E104" t="n">
-        <v>4.12</v>
+        <v>4.18</v>
       </c>
       <c r="F104" t="n">
-        <v>7837.0227</v>
+        <v>18295</v>
       </c>
       <c r="G104" t="n">
-        <v>4.159999999999997</v>
+        <v>1338299.78730664</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4252,22 +4358,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.11</v>
+        <v>4.12</v>
       </c>
       <c r="C105" t="n">
-        <v>4.11</v>
+        <v>4.12</v>
       </c>
       <c r="D105" t="n">
-        <v>4.11</v>
+        <v>4.12</v>
       </c>
       <c r="E105" t="n">
-        <v>4.11</v>
+        <v>4.12</v>
       </c>
       <c r="F105" t="n">
-        <v>2156</v>
+        <v>3859.5399</v>
       </c>
       <c r="G105" t="n">
-        <v>4.127999999999997</v>
+        <v>1334440.24740664</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4288,22 +4394,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.11</v>
+        <v>4.18</v>
       </c>
       <c r="C106" t="n">
-        <v>4.11</v>
+        <v>4.18</v>
       </c>
       <c r="D106" t="n">
-        <v>4.11</v>
+        <v>4.18</v>
       </c>
       <c r="E106" t="n">
-        <v>4.11</v>
+        <v>4.18</v>
       </c>
       <c r="F106" t="n">
-        <v>4</v>
+        <v>183000</v>
       </c>
       <c r="G106" t="n">
-        <v>4.119999999999996</v>
+        <v>1517440.24740664</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4324,22 +4430,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.1</v>
+        <v>4.18</v>
       </c>
       <c r="C107" t="n">
-        <v>4.08</v>
+        <v>4.18</v>
       </c>
       <c r="D107" t="n">
-        <v>4.15</v>
+        <v>4.18</v>
       </c>
       <c r="E107" t="n">
-        <v>4.08</v>
+        <v>4.18</v>
       </c>
       <c r="F107" t="n">
-        <v>251718.8554</v>
+        <v>17324</v>
       </c>
       <c r="G107" t="n">
-        <v>4.109999999999996</v>
+        <v>1517440.24740664</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4360,28 +4466,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.09</v>
+        <v>4.18</v>
       </c>
       <c r="C108" t="n">
-        <v>4.09</v>
+        <v>4.18</v>
       </c>
       <c r="D108" t="n">
-        <v>4.09</v>
+        <v>4.18</v>
       </c>
       <c r="E108" t="n">
-        <v>4.09</v>
+        <v>4.18</v>
       </c>
       <c r="F108" t="n">
-        <v>174246.7265</v>
+        <v>2644</v>
       </c>
       <c r="G108" t="n">
-        <v>4.101999999999996</v>
+        <v>1517440.24740664</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4391,6 +4497,1050 @@
       </c>
       <c r="N108" t="inlineStr"/>
     </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F109" t="n">
+        <v>414</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1517440.24740664</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5831</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1517440.24740664</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3057</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1517440.24740664</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F112" t="n">
+        <v>267339.2941</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1517440.24740664</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="F113" t="n">
+        <v>322982</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1840422.24740664</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2813</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1840422.24740664</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1002</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1841424.24740664</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2511</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1843935.24740664</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2640</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1843935.24740664</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1070</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1843935.24740664</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E119" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F119" t="n">
+        <v>19949.1203</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1843935.24740664</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F120" t="n">
+        <v>10</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1843945.24740664</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F121" t="n">
+        <v>70093.45789999999</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1773851.78950664</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4893.3051</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1768958.48440664</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D123" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1768968.48440664</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D124" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F124" t="n">
+        <v>141.3145</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1768827.169906639</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F125" t="n">
+        <v>100</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1768827.169906639</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F126" t="n">
+        <v>75000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1768827.169906639</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F127" t="n">
+        <v>100</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1768827.169906639</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F128" t="n">
+        <v>5220</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1774047.169906639</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2347.0725</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1774047.169906639</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F130" t="n">
+        <v>249930.3246</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1524116.84530664</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F131" t="n">
+        <v>14180</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1509936.84530664</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F132" t="n">
+        <v>15609.9999</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1509936.84530664</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F133" t="n">
+        <v>7837.0227</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1502099.822606639</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2156</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1499943.822606639</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1499943.822606639</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F136" t="n">
+        <v>251718.8554</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1248224.967206639</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F137" t="n">
+        <v>174246.7265</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1422471.69370664</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-26 BackTest XVG.xlsx
+++ b/BackTest/2019-10-26 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>69967.97480471007</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-1103777.38699529</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="J3" t="n">
         <v>3.99</v>
       </c>
-      <c r="K3" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,21 @@
         <v>-343192.7794952899</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K4" t="n">
         <v>3.99</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +560,23 @@
         <v>-295560.7794952899</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4.02</v>
       </c>
       <c r="J5" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="K5" t="n">
         <v>3.99</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +601,23 @@
         <v>-295560.7794952899</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="J6" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K6" t="n">
         <v>3.99</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +642,23 @@
         <v>773985.5612998001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="J7" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="K7" t="n">
         <v>3.99</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,24 +683,23 @@
         <v>26534.56039980007</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.99</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -750,24 +724,23 @@
         <v>382551.0344998001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.99</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,24 +765,23 @@
         <v>63051.03449980007</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.99</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,22 +808,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>3.99</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -878,22 +847,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
         <v>3.99</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -920,22 +886,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>3.99</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -962,22 +925,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>3.99</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1004,22 +964,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>3.99</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1046,22 +1003,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
         <v>3.99</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1088,22 +1042,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>3.99</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1130,22 +1081,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>3.99</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1172,22 +1120,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
         <v>3.99</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1214,22 +1159,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>3.99</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1256,22 +1198,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>3.99</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1298,22 +1237,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>3.99</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1340,22 +1276,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>3.99</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1382,22 +1315,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>3.99</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1424,22 +1354,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>3.99</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1466,22 +1393,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>3.99</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1508,22 +1432,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>3.99</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1550,22 +1471,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>3.99</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1592,22 +1510,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>3.99</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1634,22 +1549,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>3.99</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1676,22 +1588,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>3.99</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1718,22 +1627,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>3.99</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1760,22 +1666,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>3.99</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1802,22 +1705,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
         <v>3.99</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1842,24 +1742,23 @@
         <v>1732125.00978424</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>3.99</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="L35" t="n">
+        <v>1.122819548872181</v>
+      </c>
       <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>1.007575757575758</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1884,26 +1783,15 @@
         <v>1729072.00978424</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1.092744360902256</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1.007575757575758</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1928,18 +1816,15 @@
         <v>1729072.00978424</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1964,18 +1849,15 @@
         <v>1833878.82458424</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2002,16 +1884,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2038,16 +1917,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2074,16 +1950,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2110,16 +1983,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2146,16 +2016,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2180,18 +2047,15 @@
         <v>1750032.38218424</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2216,18 +2080,15 @@
         <v>1747799.28438424</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2252,18 +2113,15 @@
         <v>1747799.28438424</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2288,18 +2146,15 @@
         <v>1747799.28438424</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2324,18 +2179,15 @@
         <v>2048850.56490664</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2360,18 +2212,15 @@
         <v>2049150.56490664</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2396,18 +2245,15 @@
         <v>2032142.56500664</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2434,16 +2280,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2468,18 +2311,15 @@
         <v>1731877.19670664</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2506,16 +2346,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2542,16 +2379,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2578,16 +2412,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2614,16 +2445,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2650,16 +2478,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2686,16 +2511,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2722,16 +2544,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2758,16 +2577,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2794,16 +2610,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2830,16 +2643,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2864,18 +2674,15 @@
         <v>539438.9937066397</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2902,16 +2709,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2936,18 +2740,15 @@
         <v>373986.2802066397</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2972,18 +2773,15 @@
         <v>388637.2801066397</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3008,18 +2806,15 @@
         <v>357137.2801066397</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3046,16 +2841,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3082,16 +2874,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3118,16 +2907,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3152,18 +2938,15 @@
         <v>521238.6064066397</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3190,16 +2973,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3226,16 +3006,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3262,16 +3039,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3296,18 +3070,15 @@
         <v>520248.6064066397</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3334,16 +3105,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3370,16 +3138,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3406,16 +3171,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3440,18 +3202,15 @@
         <v>520248.6064066397</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3478,16 +3237,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3514,16 +3270,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3550,16 +3303,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3584,18 +3334,15 @@
         <v>1132926.17130664</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3622,16 +3369,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3658,16 +3402,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3694,16 +3435,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3728,18 +3466,15 @@
         <v>1132394.90100664</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3766,16 +3501,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3802,16 +3534,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3838,16 +3567,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3874,16 +3600,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3910,16 +3633,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3946,16 +3666,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3982,16 +3699,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4018,16 +3732,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4054,16 +3765,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4090,16 +3798,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4124,18 +3829,15 @@
         <v>1305987.51360664</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4162,16 +3864,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4198,16 +3897,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4234,16 +3930,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4270,16 +3963,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4306,16 +3996,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4342,16 +4029,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4378,16 +4062,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4414,16 +4095,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4450,16 +4128,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4486,16 +4161,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4522,16 +4194,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4558,16 +4227,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4594,16 +4260,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4630,16 +4293,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4666,16 +4326,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4702,16 +4359,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4736,18 +4390,15 @@
         <v>1841424.24740664</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4772,18 +4423,15 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4808,18 +4456,15 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4844,18 +4489,15 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4880,18 +4522,15 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4916,18 +4555,15 @@
         <v>1843945.24740664</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4952,18 +4588,15 @@
         <v>1773851.78950664</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4988,18 +4621,15 @@
         <v>1768958.48440664</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5024,18 +4654,15 @@
         <v>1768968.48440664</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5060,18 +4687,15 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5096,18 +4720,15 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5132,18 +4753,15 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5168,18 +4786,15 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5204,18 +4819,15 @@
         <v>1774047.169906639</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5240,18 +4852,15 @@
         <v>1774047.169906639</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5276,18 +4885,15 @@
         <v>1524116.84530664</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5312,18 +4918,15 @@
         <v>1509936.84530664</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5348,18 +4951,15 @@
         <v>1509936.84530664</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5386,16 +4986,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5422,16 +5019,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5458,16 +5052,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5494,16 +5085,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5528,20 +5116,17 @@
         <v>1422471.69370664</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest XVG.xlsx
+++ b/BackTest/2019-10-26 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>69967.97480471007</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1103777.38699529</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>3.99</v>
@@ -560,11 +560,9 @@
         <v>-295560.7794952899</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>3.99</v>
       </c>
@@ -601,11 +599,9 @@
         <v>-295560.7794952899</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>3.99</v>
       </c>
@@ -642,11 +638,9 @@
         <v>773985.5612998001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>3.99</v>
       </c>
@@ -683,11 +677,9 @@
         <v>26534.56039980007</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>3.99</v>
       </c>
@@ -724,11 +716,9 @@
         <v>382551.0344998001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>3.99</v>
       </c>
@@ -765,11 +755,9 @@
         <v>63051.03449980007</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>3.99</v>
       </c>
@@ -1742,7 +1730,7 @@
         <v>1732125.00978424</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
@@ -1750,15 +1738,13 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.122819548872181</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.007575757575758</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1783,11 +1769,17 @@
         <v>1729072.00978424</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1816,11 +1808,17 @@
         <v>1729072.00978424</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1849,11 +1847,17 @@
         <v>1833878.82458424</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1885,8 +1889,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1918,8 +1928,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1951,8 +1967,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1984,8 +2006,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2017,8 +2045,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2047,11 +2081,17 @@
         <v>1750032.38218424</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2080,11 +2120,17 @@
         <v>1747799.28438424</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2113,15 +2159,23 @@
         <v>1747799.28438424</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>1.06016290726817</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.007575757575758</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2146,7 +2200,7 @@
         <v>1747799.28438424</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2179,7 +2233,7 @@
         <v>2048850.56490664</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2212,7 +2266,7 @@
         <v>2049150.56490664</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2245,7 +2299,7 @@
         <v>2032142.56500664</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2278,7 +2332,7 @@
         <v>1731091.28450664</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2311,7 +2365,7 @@
         <v>1731877.19670664</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2344,7 +2398,7 @@
         <v>388517.6205066398</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2377,7 +2431,7 @@
         <v>586990.6205066398</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2410,7 +2464,7 @@
         <v>576965.3142066398</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2443,7 +2497,7 @@
         <v>577314.4392066398</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2476,7 +2530,7 @@
         <v>393424.4392066398</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2509,7 +2563,7 @@
         <v>384084.4392066398</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2542,7 +2596,7 @@
         <v>384094.4392066398</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2575,7 +2629,7 @@
         <v>369443.4392066398</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2608,7 +2662,7 @@
         <v>369443.4392066398</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2641,7 +2695,7 @@
         <v>539438.9937066397</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2674,7 +2728,7 @@
         <v>539438.9937066397</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2707,7 +2761,7 @@
         <v>378986.2802066397</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2740,7 +2794,7 @@
         <v>373986.2802066397</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2773,7 +2827,7 @@
         <v>388637.2801066397</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2806,7 +2860,7 @@
         <v>357137.2801066397</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2839,7 +2893,7 @@
         <v>521238.6064066397</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2872,7 +2926,7 @@
         <v>521238.6064066397</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2905,7 +2959,7 @@
         <v>521238.6064066397</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2938,7 +2992,7 @@
         <v>521238.6064066397</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2971,7 +3025,7 @@
         <v>521238.6064066397</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3004,7 +3058,7 @@
         <v>521238.6064066397</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3037,7 +3091,7 @@
         <v>99238.60640663968</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3070,7 +3124,7 @@
         <v>520248.6064066397</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3103,7 +3157,7 @@
         <v>520248.6064066397</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3136,7 +3190,7 @@
         <v>520248.6064066397</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3169,7 +3223,7 @@
         <v>520248.6064066397</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3202,7 +3256,7 @@
         <v>520248.6064066397</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3235,7 +3289,7 @@
         <v>519844.1406066397</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3268,7 +3322,7 @@
         <v>520652.1406066397</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3301,7 +3355,7 @@
         <v>523836.1406066397</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3334,7 +3388,7 @@
         <v>1132926.17130664</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3466,7 +3520,7 @@
         <v>1132394.90100664</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3829,7 +3883,7 @@
         <v>1305987.51360664</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4390,7 +4444,7 @@
         <v>1841424.24740664</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4423,7 +4477,7 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4456,7 +4510,7 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4489,7 +4543,7 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4522,7 +4576,7 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4555,7 +4609,7 @@
         <v>1843945.24740664</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4588,7 +4642,7 @@
         <v>1773851.78950664</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4621,7 +4675,7 @@
         <v>1768958.48440664</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4654,7 +4708,7 @@
         <v>1768968.48440664</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4687,7 +4741,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4720,7 +4774,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4753,7 +4807,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4786,7 +4840,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4819,7 +4873,7 @@
         <v>1774047.169906639</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4852,7 +4906,7 @@
         <v>1774047.169906639</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4885,7 +4939,7 @@
         <v>1524116.84530664</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4918,7 +4972,7 @@
         <v>1509936.84530664</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4951,7 +5005,7 @@
         <v>1509936.84530664</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4984,7 +5038,7 @@
         <v>1502099.822606639</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5017,7 +5071,7 @@
         <v>1499943.822606639</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5050,7 +5104,7 @@
         <v>1499943.822606639</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5083,7 +5137,7 @@
         <v>1248224.967206639</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5116,7 +5170,7 @@
         <v>1422471.69370664</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5127,6 +5181,6 @@
       <c r="M137" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest XVG.xlsx
+++ b/BackTest/2019-10-26 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -560,9 +560,11 @@
         <v>-295560.7794952899</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J5" t="n">
         <v>3.99</v>
       </c>
@@ -677,7 +679,7 @@
         <v>26534.56039980007</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
@@ -1457,7 +1459,7 @@
         <v>739632.5367998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
@@ -1465,11 +1467,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>1.042619047619048</v>
       </c>
       <c r="M28" t="inlineStr"/>
     </row>
@@ -1496,17 +1498,11 @@
         <v>739632.5367998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1535,17 +1531,11 @@
         <v>1148643.7780998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1574,17 +1564,11 @@
         <v>1148643.7780998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1613,17 +1597,11 @@
         <v>1148643.7780998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1652,17 +1630,11 @@
         <v>1595976.3591998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1691,17 +1663,11 @@
         <v>1732125.00978424</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1730,17 +1696,11 @@
         <v>1732125.00978424</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1772,14 +1732,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1811,14 +1765,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1850,14 +1798,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1889,14 +1831,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1928,14 +1864,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1964,17 +1894,11 @@
         <v>1720032.38218424</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2006,14 +1930,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2045,14 +1963,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2084,14 +1996,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2123,14 +2029,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2159,23 +2059,15 @@
         <v>1747799.28438424</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>1.06016290726817</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.007575757575758</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2332,7 +2224,7 @@
         <v>1731091.28450664</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2365,7 +2257,7 @@
         <v>1731877.19670664</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2398,7 +2290,7 @@
         <v>388517.6205066398</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2431,7 +2323,7 @@
         <v>586990.6205066398</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2464,7 +2356,7 @@
         <v>576965.3142066398</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2497,7 +2389,7 @@
         <v>577314.4392066398</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2530,7 +2422,7 @@
         <v>393424.4392066398</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2728,7 +2620,7 @@
         <v>539438.9937066397</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2926,7 +2818,7 @@
         <v>521238.6064066397</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2959,7 +2851,7 @@
         <v>521238.6064066397</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2992,7 +2884,7 @@
         <v>521238.6064066397</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3025,7 +2917,7 @@
         <v>521238.6064066397</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3058,7 +2950,7 @@
         <v>521238.6064066397</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3091,7 +2983,7 @@
         <v>99238.60640663968</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3124,7 +3016,7 @@
         <v>520248.6064066397</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3190,7 +3082,7 @@
         <v>520248.6064066397</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3223,7 +3115,7 @@
         <v>520248.6064066397</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3256,7 +3148,7 @@
         <v>520248.6064066397</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3289,7 +3181,7 @@
         <v>519844.1406066397</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3322,7 +3214,7 @@
         <v>520652.1406066397</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3355,7 +3247,7 @@
         <v>523836.1406066397</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -4246,10 +4138,14 @@
         <v>1517440.24740664</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J109" t="n">
+        <v>4.18</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
@@ -4279,11 +4175,19 @@
         <v>1517440.24740664</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4219,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4543,7 +4453,7 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4576,7 +4486,7 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4609,7 +4519,7 @@
         <v>1843945.24740664</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4642,7 +4552,7 @@
         <v>1773851.78950664</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4675,7 +4585,7 @@
         <v>1768958.48440664</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4708,7 +4618,7 @@
         <v>1768968.48440664</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4741,7 +4651,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4774,7 +4684,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4807,7 +4717,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4840,7 +4750,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4873,7 +4783,7 @@
         <v>1774047.169906639</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4906,7 +4816,7 @@
         <v>1774047.169906639</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4939,7 +4849,7 @@
         <v>1524116.84530664</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4972,7 +4882,7 @@
         <v>1509936.84530664</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5005,7 +4915,7 @@
         <v>1509936.84530664</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5038,7 +4948,7 @@
         <v>1502099.822606639</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5071,7 +4981,7 @@
         <v>1499943.822606639</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5104,7 +5014,7 @@
         <v>1499943.822606639</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5137,7 +5047,7 @@
         <v>1248224.967206639</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5170,7 +5080,7 @@
         <v>1422471.69370664</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5181,6 +5091,6 @@
       <c r="M137" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest XVG.xlsx
+++ b/BackTest/2019-10-26 BackTest XVG.xlsx
@@ -521,9 +521,11 @@
         <v>-343192.7794952899</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J4" t="n">
         <v>3.99</v>
       </c>
@@ -601,9 +603,11 @@
         <v>-295560.7794952899</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.04</v>
+      </c>
       <c r="J6" t="n">
         <v>3.99</v>
       </c>
@@ -679,7 +683,7 @@
         <v>26534.56039980007</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
@@ -1459,7 +1463,7 @@
         <v>739632.5367998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
@@ -1467,11 +1471,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.042619047619048</v>
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr"/>
     </row>
@@ -1498,11 +1502,17 @@
         <v>739632.5367998</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1531,11 +1541,17 @@
         <v>1148643.7780998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1564,11 +1580,17 @@
         <v>1148643.7780998</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1597,11 +1619,17 @@
         <v>1148643.7780998</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1630,11 +1658,17 @@
         <v>1595976.3591998</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1663,11 +1697,17 @@
         <v>1732125.00978424</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1696,11 +1736,17 @@
         <v>1732125.00978424</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1729,15 +1775,23 @@
         <v>1729072.00978424</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>1.092744360902256</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.007575757575758</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1762,7 +1816,7 @@
         <v>1729072.00978424</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1795,7 +1849,7 @@
         <v>1833878.82458424</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1828,7 +1882,7 @@
         <v>1771868.82458424</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1861,7 +1915,7 @@
         <v>1700032.38218424</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1894,7 +1948,7 @@
         <v>1720032.38218424</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1927,7 +1981,7 @@
         <v>1750032.38218424</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1960,7 +2014,7 @@
         <v>1750032.38218424</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1993,7 +2047,7 @@
         <v>1750032.38218424</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2026,7 +2080,7 @@
         <v>1747799.28438424</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2059,7 +2113,7 @@
         <v>1747799.28438424</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2125,7 +2179,7 @@
         <v>2048850.56490664</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2191,7 +2245,7 @@
         <v>2032142.56500664</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2257,7 +2311,7 @@
         <v>1731877.19670664</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2323,7 +2377,7 @@
         <v>586990.6205066398</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2356,7 +2410,7 @@
         <v>576965.3142066398</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2455,7 +2509,7 @@
         <v>384084.4392066398</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2488,7 +2542,7 @@
         <v>384094.4392066398</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2521,7 +2575,7 @@
         <v>369443.4392066398</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2554,7 +2608,7 @@
         <v>369443.4392066398</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2587,7 +2641,7 @@
         <v>539438.9937066397</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2620,7 +2674,7 @@
         <v>539438.9937066397</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2653,7 +2707,7 @@
         <v>378986.2802066397</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2686,7 +2740,7 @@
         <v>373986.2802066397</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2719,7 +2773,7 @@
         <v>388637.2801066397</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2752,7 +2806,7 @@
         <v>357137.2801066397</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2785,7 +2839,7 @@
         <v>521238.6064066397</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3049,7 +3103,7 @@
         <v>520248.6064066397</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -4138,14 +4192,10 @@
         <v>1517440.24740664</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="J109" t="n">
-        <v>4.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
@@ -4175,19 +4225,11 @@
         <v>1517440.24740664</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="J110" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4219,14 +4261,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4420,7 +4456,7 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4453,7 +4489,7 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4486,7 +4522,7 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4519,7 +4555,7 @@
         <v>1843945.24740664</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4552,7 +4588,7 @@
         <v>1773851.78950664</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4585,7 +4621,7 @@
         <v>1768958.48440664</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4618,7 +4654,7 @@
         <v>1768968.48440664</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4651,7 +4687,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4684,7 +4720,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4717,7 +4753,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4750,7 +4786,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4783,7 +4819,7 @@
         <v>1774047.169906639</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4816,7 +4852,7 @@
         <v>1774047.169906639</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4849,7 +4885,7 @@
         <v>1524116.84530664</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>

--- a/BackTest/2019-10-26 BackTest XVG.xlsx
+++ b/BackTest/2019-10-26 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>284585.8482</v>
       </c>
       <c r="G2" t="n">
-        <v>69967.97480471007</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>1173745.3618</v>
       </c>
       <c r="G3" t="n">
-        <v>-1103777.38699529</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,21 @@
         <v>760584.6075</v>
       </c>
       <c r="G4" t="n">
-        <v>-343192.7794952899</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>3.96</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +539,21 @@
         <v>47632</v>
       </c>
       <c r="G5" t="n">
-        <v>-295560.7794952899</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
         <v>4.02</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +575,21 @@
         <v>851</v>
       </c>
       <c r="G6" t="n">
-        <v>-295560.7794952899</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
         <v>4.04</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,24 +611,19 @@
         <v>1069546.34079509</v>
       </c>
       <c r="G7" t="n">
-        <v>773985.5612998001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -680,24 +645,19 @@
         <v>747451.0009</v>
       </c>
       <c r="G8" t="n">
-        <v>26534.56039980007</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,24 +679,19 @@
         <v>356016.4741</v>
       </c>
       <c r="G9" t="n">
-        <v>382551.0344998001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -758,24 +713,19 @@
         <v>319500</v>
       </c>
       <c r="G10" t="n">
-        <v>63051.03449980007</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -797,24 +747,19 @@
         <v>45236.7132</v>
       </c>
       <c r="G11" t="n">
-        <v>17814.32129980007</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -836,24 +781,19 @@
         <v>10000</v>
       </c>
       <c r="G12" t="n">
-        <v>27814.32129980007</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -875,24 +815,19 @@
         <v>10000</v>
       </c>
       <c r="G13" t="n">
-        <v>27814.32129980007</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -914,24 +849,19 @@
         <v>14650.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>42465.32119980007</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -953,24 +883,19 @@
         <v>40952.972</v>
       </c>
       <c r="G15" t="n">
-        <v>42465.32119980007</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -992,24 +917,19 @@
         <v>292339.9148</v>
       </c>
       <c r="G16" t="n">
-        <v>334805.2359998001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1031,24 +951,19 @@
         <v>54885</v>
       </c>
       <c r="G17" t="n">
-        <v>334805.2359998001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1070,24 +985,19 @@
         <v>129510</v>
       </c>
       <c r="G18" t="n">
-        <v>334805.2359998001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1109,24 +1019,19 @@
         <v>40000</v>
       </c>
       <c r="G19" t="n">
-        <v>374805.2359998001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1148,24 +1053,19 @@
         <v>88805.6059</v>
       </c>
       <c r="G20" t="n">
-        <v>285999.6300998001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1187,24 +1087,19 @@
         <v>5000</v>
       </c>
       <c r="G21" t="n">
-        <v>290999.6300998001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1226,24 +1121,19 @@
         <v>163827.218</v>
       </c>
       <c r="G22" t="n">
-        <v>454826.8480998001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1265,24 +1155,19 @@
         <v>276751.2359</v>
       </c>
       <c r="G23" t="n">
-        <v>731578.0839998</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1304,24 +1189,19 @@
         <v>726.3571428499999</v>
       </c>
       <c r="G24" t="n">
-        <v>731578.0839998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1343,24 +1223,19 @@
         <v>10000</v>
       </c>
       <c r="G25" t="n">
-        <v>731578.0839998</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1382,24 +1257,19 @@
         <v>33349.2857</v>
       </c>
       <c r="G26" t="n">
-        <v>731578.0839998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1421,24 +1291,19 @@
         <v>8780.8099</v>
       </c>
       <c r="G27" t="n">
-        <v>740358.8938998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1460,24 +1325,19 @@
         <v>726.3570999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>739632.5367998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1499,24 +1359,19 @@
         <v>2992.5</v>
       </c>
       <c r="G29" t="n">
-        <v>739632.5367998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1538,24 +1393,19 @@
         <v>409011.2413</v>
       </c>
       <c r="G30" t="n">
-        <v>1148643.7780998</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1577,24 +1427,19 @@
         <v>216709.4917</v>
       </c>
       <c r="G31" t="n">
-        <v>1148643.7780998</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1616,24 +1461,19 @@
         <v>36590</v>
       </c>
       <c r="G32" t="n">
-        <v>1148643.7780998</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1655,24 +1495,19 @@
         <v>447332.5811</v>
       </c>
       <c r="G33" t="n">
-        <v>1595976.3591998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1694,24 +1529,19 @@
         <v>136148.65058444</v>
       </c>
       <c r="G34" t="n">
-        <v>1732125.00978424</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1733,24 +1563,19 @@
         <v>4444.444</v>
       </c>
       <c r="G35" t="n">
-        <v>1732125.00978424</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1772,26 +1597,19 @@
         <v>3053</v>
       </c>
       <c r="G36" t="n">
-        <v>1729072.00978424</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1.092744360902256</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.007575757575758</v>
-      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1813,18 +1631,17 @@
         <v>193714</v>
       </c>
       <c r="G37" t="n">
-        <v>1729072.00978424</v>
-      </c>
-      <c r="H37" t="n">
         <v>2</v>
       </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1846,18 +1663,15 @@
         <v>104806.8148</v>
       </c>
       <c r="G38" t="n">
-        <v>1833878.82458424</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1879,18 +1693,15 @@
         <v>62010</v>
       </c>
       <c r="G39" t="n">
-        <v>1771868.82458424</v>
-      </c>
-      <c r="H39" t="n">
         <v>2</v>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1912,18 +1723,15 @@
         <v>71836.4424</v>
       </c>
       <c r="G40" t="n">
-        <v>1700032.38218424</v>
-      </c>
-      <c r="H40" t="n">
         <v>2</v>
       </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1945,18 +1753,15 @@
         <v>20000</v>
       </c>
       <c r="G41" t="n">
-        <v>1720032.38218424</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1978,18 +1783,15 @@
         <v>30000</v>
       </c>
       <c r="G42" t="n">
-        <v>1750032.38218424</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2011,18 +1813,15 @@
         <v>35000</v>
       </c>
       <c r="G43" t="n">
-        <v>1750032.38218424</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2044,18 +1843,15 @@
         <v>2349.4279</v>
       </c>
       <c r="G44" t="n">
-        <v>1750032.38218424</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2077,18 +1873,15 @@
         <v>2233.0978</v>
       </c>
       <c r="G45" t="n">
-        <v>1747799.28438424</v>
-      </c>
-      <c r="H45" t="n">
         <v>2</v>
       </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2110,18 +1903,15 @@
         <v>10000</v>
       </c>
       <c r="G46" t="n">
-        <v>1747799.28438424</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2143,18 +1933,15 @@
         <v>1607.888</v>
       </c>
       <c r="G47" t="n">
-        <v>1747799.28438424</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2176,18 +1963,15 @@
         <v>301051.2805224</v>
       </c>
       <c r="G48" t="n">
-        <v>2048850.56490664</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2209,18 +1993,15 @@
         <v>300</v>
       </c>
       <c r="G49" t="n">
-        <v>2049150.56490664</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2242,18 +2023,15 @@
         <v>17007.9999</v>
       </c>
       <c r="G50" t="n">
-        <v>2032142.56500664</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2275,18 +2053,15 @@
         <v>301051.2805</v>
       </c>
       <c r="G51" t="n">
-        <v>1731091.28450664</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2308,18 +2083,15 @@
         <v>785.9122</v>
       </c>
       <c r="G52" t="n">
-        <v>1731877.19670664</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2341,18 +2113,15 @@
         <v>1343359.5762</v>
       </c>
       <c r="G53" t="n">
-        <v>388517.6205066398</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2374,18 +2143,15 @@
         <v>198473</v>
       </c>
       <c r="G54" t="n">
-        <v>586990.6205066398</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2407,18 +2173,15 @@
         <v>10025.3063</v>
       </c>
       <c r="G55" t="n">
-        <v>576965.3142066398</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2440,18 +2203,15 @@
         <v>349.125</v>
       </c>
       <c r="G56" t="n">
-        <v>577314.4392066398</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2473,18 +2233,15 @@
         <v>183890</v>
       </c>
       <c r="G57" t="n">
-        <v>393424.4392066398</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2506,18 +2263,15 @@
         <v>9340</v>
       </c>
       <c r="G58" t="n">
-        <v>384084.4392066398</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2539,18 +2293,15 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>384094.4392066398</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2572,18 +2323,15 @@
         <v>14651</v>
       </c>
       <c r="G60" t="n">
-        <v>369443.4392066398</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2605,18 +2353,15 @@
         <v>76173.1738</v>
       </c>
       <c r="G61" t="n">
-        <v>369443.4392066398</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2638,18 +2383,15 @@
         <v>169995.5545</v>
       </c>
       <c r="G62" t="n">
-        <v>539438.9937066397</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2671,18 +2413,15 @@
         <v>336107.0457</v>
       </c>
       <c r="G63" t="n">
-        <v>539438.9937066397</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2704,18 +2443,15 @@
         <v>160452.7135</v>
       </c>
       <c r="G64" t="n">
-        <v>378986.2802066397</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2737,18 +2473,15 @@
         <v>5000</v>
       </c>
       <c r="G65" t="n">
-        <v>373986.2802066397</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2770,18 +2503,15 @@
         <v>14650.9999</v>
       </c>
       <c r="G66" t="n">
-        <v>388637.2801066397</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2803,18 +2533,15 @@
         <v>31500</v>
       </c>
       <c r="G67" t="n">
-        <v>357137.2801066397</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2836,18 +2563,15 @@
         <v>164101.3263</v>
       </c>
       <c r="G68" t="n">
-        <v>521238.6064066397</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2869,18 +2593,15 @@
         <v>14651</v>
       </c>
       <c r="G69" t="n">
-        <v>521238.6064066397</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2902,18 +2623,15 @@
         <v>48899.7555</v>
       </c>
       <c r="G70" t="n">
-        <v>521238.6064066397</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2935,18 +2653,15 @@
         <v>14650.9999</v>
       </c>
       <c r="G71" t="n">
-        <v>521238.6064066397</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2968,18 +2683,15 @@
         <v>18787.9785</v>
       </c>
       <c r="G72" t="n">
-        <v>521238.6064066397</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3001,18 +2713,15 @@
         <v>280240.3267</v>
       </c>
       <c r="G73" t="n">
-        <v>521238.6064066397</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3034,18 +2743,15 @@
         <v>422000</v>
       </c>
       <c r="G74" t="n">
-        <v>99238.60640663968</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3067,18 +2773,15 @@
         <v>421010</v>
       </c>
       <c r="G75" t="n">
-        <v>520248.6064066397</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3100,18 +2803,15 @@
         <v>81000</v>
       </c>
       <c r="G76" t="n">
-        <v>520248.6064066397</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3133,18 +2833,15 @@
         <v>48927.3838</v>
       </c>
       <c r="G77" t="n">
-        <v>520248.6064066397</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3166,18 +2863,15 @@
         <v>3568</v>
       </c>
       <c r="G78" t="n">
-        <v>520248.6064066397</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3199,18 +2893,15 @@
         <v>133825.6652</v>
       </c>
       <c r="G79" t="n">
-        <v>520248.6064066397</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3232,18 +2923,15 @@
         <v>404.4658</v>
       </c>
       <c r="G80" t="n">
-        <v>519844.1406066397</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3265,18 +2953,15 @@
         <v>808</v>
       </c>
       <c r="G81" t="n">
-        <v>520652.1406066397</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3298,18 +2983,15 @@
         <v>3184</v>
       </c>
       <c r="G82" t="n">
-        <v>523836.1406066397</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3331,18 +3013,15 @@
         <v>609090.0307</v>
       </c>
       <c r="G83" t="n">
-        <v>1132926.17130664</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3364,18 +3043,15 @@
         <v>25978.6513</v>
       </c>
       <c r="G84" t="n">
-        <v>1132926.17130664</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3397,18 +3073,15 @@
         <v>531.2703</v>
       </c>
       <c r="G85" t="n">
-        <v>1132394.90100664</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3430,18 +3103,15 @@
         <v>5000</v>
       </c>
       <c r="G86" t="n">
-        <v>1132394.90100664</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3463,18 +3133,15 @@
         <v>5000</v>
       </c>
       <c r="G87" t="n">
-        <v>1132394.90100664</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3496,18 +3163,15 @@
         <v>3392</v>
       </c>
       <c r="G88" t="n">
-        <v>1132394.90100664</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3529,18 +3193,15 @@
         <v>5655.3519</v>
       </c>
       <c r="G89" t="n">
-        <v>1132394.90100664</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3562,18 +3223,15 @@
         <v>4963</v>
       </c>
       <c r="G90" t="n">
-        <v>1132394.90100664</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3595,18 +3253,15 @@
         <v>80338.3933</v>
       </c>
       <c r="G91" t="n">
-        <v>1132394.90100664</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3628,18 +3283,15 @@
         <v>2615</v>
       </c>
       <c r="G92" t="n">
-        <v>1135009.90100664</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3661,18 +3313,15 @@
         <v>190167</v>
       </c>
       <c r="G93" t="n">
-        <v>1135009.90100664</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3694,18 +3343,15 @@
         <v>23654.9999</v>
       </c>
       <c r="G94" t="n">
-        <v>1135009.90100664</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3727,18 +3373,15 @@
         <v>61704.7492</v>
       </c>
       <c r="G95" t="n">
-        <v>1135009.90100664</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3760,18 +3403,15 @@
         <v>28693.1306</v>
       </c>
       <c r="G96" t="n">
-        <v>1135009.90100664</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3793,18 +3433,15 @@
         <v>121024</v>
       </c>
       <c r="G97" t="n">
-        <v>1135009.90100664</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3826,18 +3463,15 @@
         <v>170977.6126</v>
       </c>
       <c r="G98" t="n">
-        <v>1305987.51360664</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3859,18 +3493,15 @@
         <v>44271.8651</v>
       </c>
       <c r="G99" t="n">
-        <v>1350259.37870664</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3892,18 +3523,15 @@
         <v>462</v>
       </c>
       <c r="G100" t="n">
-        <v>1350259.37870664</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3925,18 +3553,15 @@
         <v>11959.5914</v>
       </c>
       <c r="G101" t="n">
-        <v>1338299.78730664</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3958,18 +3583,15 @@
         <v>124978.5929</v>
       </c>
       <c r="G102" t="n">
-        <v>1338299.78730664</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3991,18 +3613,15 @@
         <v>88218.78049999999</v>
       </c>
       <c r="G103" t="n">
-        <v>1338299.78730664</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4024,18 +3643,15 @@
         <v>18295</v>
       </c>
       <c r="G104" t="n">
-        <v>1338299.78730664</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4057,18 +3673,19 @@
         <v>3859.5399</v>
       </c>
       <c r="G105" t="n">
-        <v>1334440.24740664</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>4.18</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4.18</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4090,18 +3707,23 @@
         <v>183000</v>
       </c>
       <c r="G106" t="n">
-        <v>1517440.24740664</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>4.12</v>
+      </c>
+      <c r="I106" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4123,18 +3745,23 @@
         <v>17324</v>
       </c>
       <c r="G107" t="n">
-        <v>1517440.24740664</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>4.18</v>
+      </c>
+      <c r="I107" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4156,18 +3783,19 @@
         <v>2644</v>
       </c>
       <c r="G108" t="n">
-        <v>1517440.24740664</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>4.18</v>
+      </c>
+      <c r="I108" t="n">
+        <v>4.18</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4189,18 +3817,23 @@
         <v>414</v>
       </c>
       <c r="G109" t="n">
-        <v>1517440.24740664</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>4.18</v>
+      </c>
+      <c r="I109" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4222,18 +3855,23 @@
         <v>5831</v>
       </c>
       <c r="G110" t="n">
-        <v>1517440.24740664</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>4.18</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4255,18 +3893,19 @@
         <v>3057</v>
       </c>
       <c r="G111" t="n">
-        <v>1517440.24740664</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>4.18</v>
+      </c>
+      <c r="I111" t="n">
+        <v>4.18</v>
+      </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4288,18 +3927,23 @@
         <v>267339.2941</v>
       </c>
       <c r="G112" t="n">
-        <v>1517440.24740664</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>4.18</v>
+      </c>
+      <c r="I112" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4321,18 +3965,23 @@
         <v>322982</v>
       </c>
       <c r="G113" t="n">
-        <v>1840422.24740664</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>4.18</v>
+      </c>
+      <c r="I113" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4354,18 +4003,19 @@
         <v>2813</v>
       </c>
       <c r="G114" t="n">
-        <v>1840422.24740664</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>4.2</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4.2</v>
+      </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4387,18 +4037,23 @@
         <v>1002</v>
       </c>
       <c r="G115" t="n">
-        <v>1841424.24740664</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>4.2</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4420,18 +4075,23 @@
         <v>2511</v>
       </c>
       <c r="G116" t="n">
-        <v>1843935.24740664</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>4.22</v>
+      </c>
+      <c r="I116" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4453,18 +4113,23 @@
         <v>2640</v>
       </c>
       <c r="G117" t="n">
-        <v>1843935.24740664</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>4.28</v>
+      </c>
+      <c r="I117" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4486,18 +4151,23 @@
         <v>1070</v>
       </c>
       <c r="G118" t="n">
-        <v>1843935.24740664</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>4.28</v>
+      </c>
+      <c r="I118" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4519,18 +4189,23 @@
         <v>19949.1203</v>
       </c>
       <c r="G119" t="n">
-        <v>1843935.24740664</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>4.28</v>
+      </c>
+      <c r="I119" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4552,18 +4227,21 @@
         <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>1843945.24740664</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4585,18 +4263,21 @@
         <v>70093.45789999999</v>
       </c>
       <c r="G121" t="n">
-        <v>1773851.78950664</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4618,18 +4299,21 @@
         <v>4893.3051</v>
       </c>
       <c r="G122" t="n">
-        <v>1768958.48440664</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4651,18 +4335,23 @@
         <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>1768968.48440664</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>4.17</v>
+      </c>
+      <c r="I123" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4684,18 +4373,23 @@
         <v>141.3145</v>
       </c>
       <c r="G124" t="n">
-        <v>1768827.169906639</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>4.27</v>
+      </c>
+      <c r="I124" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4717,18 +4411,21 @@
         <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>1768827.169906639</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4750,18 +4447,21 @@
         <v>75000</v>
       </c>
       <c r="G126" t="n">
-        <v>1768827.169906639</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4783,18 +4483,21 @@
         <v>100</v>
       </c>
       <c r="G127" t="n">
-        <v>1768827.169906639</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4816,18 +4519,21 @@
         <v>5220</v>
       </c>
       <c r="G128" t="n">
-        <v>1774047.169906639</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4849,18 +4555,21 @@
         <v>2347.0725</v>
       </c>
       <c r="G129" t="n">
-        <v>1774047.169906639</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4882,18 +4591,21 @@
         <v>249930.3246</v>
       </c>
       <c r="G130" t="n">
-        <v>1524116.84530664</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4915,18 +4627,23 @@
         <v>14180</v>
       </c>
       <c r="G131" t="n">
-        <v>1509936.84530664</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>4.15</v>
+      </c>
+      <c r="I131" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4948,18 +4665,23 @@
         <v>15609.9999</v>
       </c>
       <c r="G132" t="n">
-        <v>1509936.84530664</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>4.13</v>
+      </c>
+      <c r="I132" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4981,18 +4703,23 @@
         <v>7837.0227</v>
       </c>
       <c r="G133" t="n">
-        <v>1502099.822606639</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>4.13</v>
+      </c>
+      <c r="I133" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5014,18 +4741,23 @@
         <v>2156</v>
       </c>
       <c r="G134" t="n">
-        <v>1499943.822606639</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>4.12</v>
+      </c>
+      <c r="I134" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5047,18 +4779,23 @@
         <v>4</v>
       </c>
       <c r="G135" t="n">
-        <v>1499943.822606639</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>4.11</v>
+      </c>
+      <c r="I135" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5080,18 +4817,23 @@
         <v>251718.8554</v>
       </c>
       <c r="G136" t="n">
-        <v>1248224.967206639</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>4.11</v>
+      </c>
+      <c r="I136" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5113,18 +4855,23 @@
         <v>174246.7265</v>
       </c>
       <c r="G137" t="n">
-        <v>1422471.69370664</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>4.08</v>
+      </c>
+      <c r="I137" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
